--- a/Code/Results/Cases/Case_5_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.48967468088323</v>
+        <v>25.8319783295258</v>
       </c>
       <c r="C2">
-        <v>15.22288658281314</v>
+        <v>19.32186657998574</v>
       </c>
       <c r="D2">
-        <v>9.67341441765989</v>
+        <v>3.101664155122385</v>
       </c>
       <c r="E2">
-        <v>11.54913474817771</v>
+        <v>30.43309901857213</v>
       </c>
       <c r="F2">
-        <v>63.13792406414991</v>
+        <v>35.57216252529392</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,27 +448,33 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.45903733982065</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>27.5495246942346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.86726751891088</v>
+        <v>23.98656087807654</v>
       </c>
       <c r="C3">
-        <v>14.08913576263373</v>
+        <v>17.99529160858929</v>
       </c>
       <c r="D3">
-        <v>9.181617575283251</v>
+        <v>3.180132638920633</v>
       </c>
       <c r="E3">
-        <v>10.87066311557257</v>
+        <v>28.09644537453478</v>
       </c>
       <c r="F3">
-        <v>59.1035560016058</v>
+        <v>33.41940872675273</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,27 +489,33 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.1128798170566</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>26.0126776478915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.82988255115196</v>
+        <v>22.79907257585412</v>
       </c>
       <c r="C4">
-        <v>13.36632013153913</v>
+        <v>17.14335770913636</v>
       </c>
       <c r="D4">
-        <v>8.875392590172812</v>
+        <v>3.232980043703926</v>
       </c>
       <c r="E4">
-        <v>10.44724256333902</v>
+        <v>26.60979942087707</v>
       </c>
       <c r="F4">
-        <v>56.5588486900649</v>
+        <v>32.08886372025847</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -512,27 +530,33 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.25236419242417</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>25.07243481349881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.39636202508597</v>
+        <v>22.30113121214865</v>
       </c>
       <c r="C5">
-        <v>13.06471417811959</v>
+        <v>16.78653928293068</v>
       </c>
       <c r="D5">
-        <v>8.749501169169422</v>
+        <v>3.255532360581376</v>
       </c>
       <c r="E5">
-        <v>10.2729870108317</v>
+        <v>25.99013757942181</v>
       </c>
       <c r="F5">
-        <v>55.50465868981816</v>
+        <v>31.54459444947727</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -547,27 +571,33 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.89281034718831</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>24.69021892407202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.32371415469499</v>
+        <v>22.21759135342774</v>
       </c>
       <c r="C6">
-        <v>13.01419750584154</v>
+        <v>16.7267007272528</v>
       </c>
       <c r="D6">
-        <v>8.728530103236084</v>
+        <v>3.259334534791108</v>
       </c>
       <c r="E6">
-        <v>10.24395016191453</v>
+        <v>25.88638603917614</v>
       </c>
       <c r="F6">
-        <v>55.3285715258332</v>
+        <v>31.45410191794644</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -582,27 +612,33 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.83256062712739</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>24.62681394375983</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.82408009169407</v>
+        <v>22.79241441475935</v>
       </c>
       <c r="C7">
-        <v>13.36228154839911</v>
+        <v>17.13858489090713</v>
       </c>
       <c r="D7">
-        <v>8.873699256051612</v>
+        <v>3.233280261543805</v>
       </c>
       <c r="E7">
-        <v>10.44489935611065</v>
+        <v>26.60149945738749</v>
       </c>
       <c r="F7">
-        <v>56.54470123756272</v>
+        <v>32.08153154839565</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -617,27 +653,33 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.24755153320397</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>25.06727610362079</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.93855992436622</v>
+        <v>25.20674487792859</v>
       </c>
       <c r="C8">
-        <v>14.83728976018438</v>
+        <v>18.87207183978688</v>
       </c>
       <c r="D8">
-        <v>9.504698129052855</v>
+        <v>3.127646620888977</v>
       </c>
       <c r="E8">
-        <v>11.31660622049987</v>
+        <v>29.6376969497438</v>
       </c>
       <c r="F8">
-        <v>61.76069326004977</v>
+        <v>34.83173318352715</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -652,27 +694,33 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.0017118980831</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>27.01893104520513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.77959008961225</v>
+        <v>29.52763917370777</v>
       </c>
       <c r="C9">
-        <v>17.53591435687997</v>
+        <v>21.98757187668948</v>
       </c>
       <c r="D9">
-        <v>10.71158823330145</v>
+        <v>2.966586295093564</v>
       </c>
       <c r="E9">
-        <v>12.97436853230114</v>
+        <v>35.22093975297223</v>
       </c>
       <c r="F9">
-        <v>71.47746518602808</v>
+        <v>40.15991745017125</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -687,27 +735,33 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.19013875150356</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>30.87646730324863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.45136087982407</v>
+        <v>32.4792916663068</v>
       </c>
       <c r="C10">
-        <v>19.43028709716993</v>
+        <v>24.1254447219406</v>
       </c>
       <c r="D10">
-        <v>11.58756733939429</v>
+        <v>2.892756763190216</v>
       </c>
       <c r="E10">
-        <v>14.1693938819668</v>
+        <v>39.16676050694745</v>
       </c>
       <c r="F10">
-        <v>78.36266351165968</v>
+        <v>44.3515588335895</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -722,27 +776,33 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.40943940149393</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>34.08716422401222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.64443460287008</v>
+        <v>33.78175288756775</v>
       </c>
       <c r="C11">
-        <v>20.2814599276264</v>
+        <v>25.07151509988497</v>
       </c>
       <c r="D11">
-        <v>11.9866039005851</v>
+        <v>2.873837609648037</v>
       </c>
       <c r="E11">
-        <v>14.71156148595306</v>
+        <v>40.94825430393769</v>
       </c>
       <c r="F11">
-        <v>81.4605762342977</v>
+        <v>46.25508824427078</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -757,27 +817,33 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.40085596623593</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>35.58186622172166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.09409793678164</v>
+        <v>34.27001200941231</v>
       </c>
       <c r="C12">
-        <v>20.60316858852067</v>
+        <v>25.42663256873756</v>
       </c>
       <c r="D12">
-        <v>12.13812659116142</v>
+        <v>2.869323865376335</v>
       </c>
       <c r="E12">
-        <v>14.91708591210388</v>
+        <v>41.62313677895234</v>
       </c>
       <c r="F12">
-        <v>82.63117153136476</v>
+        <v>46.97622666001556</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -792,27 +858,33 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.77457908591585</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>36.14833649512958</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.99732959218455</v>
+        <v>34.16506181187106</v>
       </c>
       <c r="C13">
-        <v>20.53389328664067</v>
+        <v>25.35027901686155</v>
       </c>
       <c r="D13">
-        <v>12.10546850229206</v>
+        <v>2.870168256535213</v>
       </c>
       <c r="E13">
-        <v>14.87280464224694</v>
+        <v>41.47773560681431</v>
       </c>
       <c r="F13">
-        <v>82.37912928628121</v>
+        <v>46.82087413820221</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -827,27 +899,33 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.6941502713633</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>36.0262929517708</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.68146423125573</v>
+        <v>33.82201614219185</v>
       </c>
       <c r="C14">
-        <v>20.30793338376467</v>
+        <v>25.10078937777381</v>
       </c>
       <c r="D14">
-        <v>11.99905913248234</v>
+        <v>2.873409634662598</v>
       </c>
       <c r="E14">
-        <v>14.7284628270462</v>
+        <v>41.00375726598419</v>
       </c>
       <c r="F14">
-        <v>81.55691609247533</v>
+        <v>46.31440033517525</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -862,27 +940,33 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.43163062919416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>35.62845248915411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.48774680726397</v>
+        <v>33.61127329744807</v>
       </c>
       <c r="C15">
-        <v>20.16947733066711</v>
+        <v>24.94758333148695</v>
       </c>
       <c r="D15">
-        <v>11.93394622840069</v>
+        <v>2.875758247222823</v>
       </c>
       <c r="E15">
-        <v>14.64009252731104</v>
+        <v>40.713541814432</v>
       </c>
       <c r="F15">
-        <v>81.05304167826172</v>
+        <v>46.00426306595323</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -897,27 +981,33 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.27063814277074</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>35.3848663831981</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.37302861519096</v>
+        <v>32.39343012508078</v>
       </c>
       <c r="C16">
-        <v>19.37452113274355</v>
+        <v>24.06313800809577</v>
       </c>
       <c r="D16">
-        <v>11.56152705635041</v>
+        <v>2.89433207241965</v>
       </c>
       <c r="E16">
-        <v>14.13396621090567</v>
+        <v>39.05024123291788</v>
       </c>
       <c r="F16">
-        <v>78.15970993511972</v>
+        <v>44.22711153639592</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -932,27 +1022,33 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.34435561616374</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>33.98947074324017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.68416494078244</v>
+        <v>31.63655343748724</v>
       </c>
       <c r="C17">
-        <v>18.8847157553</v>
+        <v>23.5142123376957</v>
       </c>
       <c r="D17">
-        <v>11.33341115911671</v>
+        <v>2.909833906790367</v>
       </c>
       <c r="E17">
-        <v>13.82336543926775</v>
+        <v>38.02781881530677</v>
       </c>
       <c r="F17">
-        <v>76.37749490957667</v>
+        <v>43.13571543536096</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -967,27 +1063,33 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.77204571429264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>33.13282396070263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.28577022448318</v>
+        <v>31.19736984747591</v>
       </c>
       <c r="C18">
-        <v>18.60193133542984</v>
+        <v>23.19594708126765</v>
       </c>
       <c r="D18">
-        <v>11.20223137538694</v>
+        <v>2.920091966649816</v>
       </c>
       <c r="E18">
-        <v>13.64454670600259</v>
+        <v>37.43832098353729</v>
       </c>
       <c r="F18">
-        <v>75.34901494807033</v>
+        <v>42.50708675639493</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1002,27 +1104,33 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.44109507234603</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>32.63949696228392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.15047720233129</v>
+        <v>31.04798616646128</v>
       </c>
       <c r="C19">
-        <v>18.50597858432924</v>
+        <v>23.08773408999025</v>
       </c>
       <c r="D19">
-        <v>11.15781195292667</v>
+        <v>2.923780910152623</v>
       </c>
       <c r="E19">
-        <v>13.5839617161312</v>
+        <v>37.23842303161042</v>
       </c>
       <c r="F19">
-        <v>75.00014305689285</v>
+        <v>42.29405270111049</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1037,27 +1145,33 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.32871187826016</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>32.47232823344077</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.75771403293725</v>
+        <v>31.71751701310513</v>
       </c>
       <c r="C20">
-        <v>18.93696026673496</v>
+        <v>23.57290469522972</v>
       </c>
       <c r="D20">
-        <v>11.35768961141464</v>
+        <v>2.908041267032154</v>
       </c>
       <c r="E20">
-        <v>13.85644427071604</v>
+        <v>38.13679084714311</v>
       </c>
       <c r="F20">
-        <v>76.56755099164837</v>
+        <v>43.25197865168198</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1072,27 +1186,33 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.83314665996521</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>33.224070295343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.77428942621454</v>
+        <v>33.92290390140737</v>
       </c>
       <c r="C21">
-        <v>20.3743115791659</v>
+        <v>25.17414965578739</v>
       </c>
       <c r="D21">
-        <v>12.03029966122794</v>
+        <v>2.87238074939191</v>
       </c>
       <c r="E21">
-        <v>14.77084955240283</v>
+        <v>41.14294852616394</v>
       </c>
       <c r="F21">
-        <v>81.79846584882672</v>
+        <v>46.46314137763385</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1107,27 +1227,33 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.50877702669746</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>35.74528375087566</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.08053319152503</v>
+        <v>35.33589917630409</v>
       </c>
       <c r="C22">
-        <v>21.31072649516639</v>
+        <v>26.20278862375343</v>
       </c>
       <c r="D22">
-        <v>12.47254965721403</v>
+        <v>2.864859821616998</v>
       </c>
       <c r="E22">
-        <v>15.37003467969023</v>
+        <v>43.11068014446154</v>
       </c>
       <c r="F22">
-        <v>85.26402347139836</v>
+        <v>48.5646780604646</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1142,27 +1268,33 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.59454506397262</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>37.39656821190606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.38401064502192</v>
+        <v>34.58402613315909</v>
       </c>
       <c r="C23">
-        <v>20.81085672655146</v>
+        <v>25.65515730253835</v>
       </c>
       <c r="D23">
-        <v>12.23613002365588</v>
+        <v>2.8672202286129</v>
       </c>
       <c r="E23">
-        <v>15.04991702736763</v>
+        <v>42.05930312588158</v>
       </c>
       <c r="F23">
-        <v>83.39628071124802</v>
+        <v>47.44217311557465</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1177,27 +1309,33 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>25.01554911332362</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>36.51441620943213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.72446991080194</v>
+        <v>31.68092604074971</v>
       </c>
       <c r="C24">
-        <v>18.91334429171477</v>
+        <v>23.54637827798138</v>
       </c>
       <c r="D24">
-        <v>11.34671344974518</v>
+        <v>2.908847566899405</v>
       </c>
       <c r="E24">
-        <v>13.84149014076234</v>
+        <v>38.08753002560062</v>
       </c>
       <c r="F24">
-        <v>76.48163883456121</v>
+        <v>43.19941980461447</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1212,27 +1350,33 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.80552897473749</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>33.18282049988999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.76984881374339</v>
+        <v>28.40025081681539</v>
       </c>
       <c r="C25">
-        <v>16.82384956417743</v>
+        <v>21.17310729768478</v>
       </c>
       <c r="D25">
-        <v>10.38772759989976</v>
+        <v>3.003761933107514</v>
       </c>
       <c r="E25">
-        <v>12.53081261889728</v>
+        <v>33.7437878637502</v>
       </c>
       <c r="F25">
-        <v>68.89891031086152</v>
+        <v>38.72395925197502</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1247,7 +1391,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.35171417812854</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>29.82852543293861</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_61/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.8319783295258</v>
+        <v>21.10762791054011</v>
       </c>
       <c r="C2">
-        <v>19.32186657998574</v>
+        <v>15.39307290267113</v>
       </c>
       <c r="D2">
-        <v>3.101664155122385</v>
+        <v>6.484897729506553</v>
       </c>
       <c r="E2">
-        <v>30.43309901857213</v>
+        <v>8.48349512777588</v>
       </c>
       <c r="F2">
-        <v>35.57216252529392</v>
+        <v>20.63100747963221</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>11.67826831046565</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.595333829481715</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>15.36647883904751</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.5495246942346</v>
+        <v>14.39486057354119</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.98656087807654</v>
+        <v>19.73178837533203</v>
       </c>
       <c r="C3">
-        <v>17.99529160858929</v>
+        <v>14.40642530655449</v>
       </c>
       <c r="D3">
-        <v>3.180132638920633</v>
+        <v>6.293522590188147</v>
       </c>
       <c r="E3">
-        <v>28.09644537453478</v>
+        <v>8.396529238988421</v>
       </c>
       <c r="F3">
-        <v>33.41940872675273</v>
+        <v>20.36512932788153</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>12.02503334919025</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.652889415160289</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>14.5123654201892</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.0126776478915</v>
+        <v>14.37986439532443</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.79907257585412</v>
+        <v>18.83762007680248</v>
       </c>
       <c r="C4">
-        <v>17.14335770913636</v>
+        <v>13.76580952780005</v>
       </c>
       <c r="D4">
-        <v>3.232980043703926</v>
+        <v>6.175363906082835</v>
       </c>
       <c r="E4">
-        <v>26.60979942087707</v>
+        <v>8.347922978583448</v>
       </c>
       <c r="F4">
-        <v>32.08886372025847</v>
+        <v>20.22630293053585</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>12.25049273344576</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.690810849049162</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -530,13 +530,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13.96520743361216</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.07243481349881</v>
+        <v>14.39006493802995</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.30113121214865</v>
+        <v>18.46077975801724</v>
       </c>
       <c r="C5">
-        <v>16.78653928293068</v>
+        <v>13.49599074522653</v>
       </c>
       <c r="D5">
-        <v>3.255532360581376</v>
+        <v>6.127111988037093</v>
       </c>
       <c r="E5">
-        <v>25.99013757942181</v>
+        <v>8.329309307687481</v>
       </c>
       <c r="F5">
-        <v>31.54459444947727</v>
+        <v>20.17572613446638</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>12.34537524931773</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.706898877238169</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>13.73669816128814</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.69021892407202</v>
+        <v>14.39887613355933</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.21759135342774</v>
+        <v>18.3974522689681</v>
       </c>
       <c r="C6">
-        <v>16.7267007272528</v>
+        <v>13.45065824724321</v>
       </c>
       <c r="D6">
-        <v>3.259334534791108</v>
+        <v>6.11909559422747</v>
       </c>
       <c r="E6">
-        <v>25.88638603917614</v>
+        <v>8.326290252613367</v>
       </c>
       <c r="F6">
-        <v>31.45410191794644</v>
+        <v>20.16768534036257</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>12.36130803804157</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.709608214876106</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -612,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>13.69842587968868</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.62681394375983</v>
+        <v>14.40061363801721</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.79241441475935</v>
+        <v>18.83258836802488</v>
       </c>
       <c r="C7">
-        <v>17.13858489090713</v>
+        <v>13.76220614144478</v>
       </c>
       <c r="D7">
-        <v>3.233280261543805</v>
+        <v>6.174713487789986</v>
       </c>
       <c r="E7">
-        <v>26.60149945738749</v>
+        <v>8.347667130897705</v>
       </c>
       <c r="F7">
-        <v>32.08153154839565</v>
+        <v>20.22559676545726</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>12.25176036162202</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.691025266178681</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -653,13 +653,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>13.96214783644471</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.06727610362079</v>
+        <v>14.39016522567943</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.20674487792859</v>
+        <v>20.64346484151272</v>
       </c>
       <c r="C8">
-        <v>18.87207183978688</v>
+        <v>15.06009262611122</v>
       </c>
       <c r="D8">
-        <v>3.127646620888977</v>
+        <v>6.419083787639732</v>
       </c>
       <c r="E8">
-        <v>29.6376969497438</v>
+        <v>8.452508996635718</v>
       </c>
       <c r="F8">
-        <v>34.83173318352715</v>
+        <v>20.53418323353978</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>11.79513311815637</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.614633976443955</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -694,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>15.07679223590256</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.01893104520513</v>
+        <v>14.38552760304025</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.52763917370777</v>
+        <v>23.8048496558006</v>
       </c>
       <c r="C9">
-        <v>21.98757187668948</v>
+        <v>17.33001190904733</v>
       </c>
       <c r="D9">
-        <v>2.966586295093564</v>
+        <v>6.890562799188431</v>
       </c>
       <c r="E9">
-        <v>35.22093975297223</v>
+        <v>8.696504944956326</v>
       </c>
       <c r="F9">
-        <v>40.15991745017125</v>
+        <v>21.33841472618656</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>11.00717716680598</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.486033706063116</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -735,13 +735,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>17.1947069472381</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>30.87646730324863</v>
+        <v>14.54014863932295</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.4792916663068</v>
+        <v>25.89354518034727</v>
       </c>
       <c r="C10">
-        <v>24.1254447219406</v>
+        <v>18.83190847153394</v>
       </c>
       <c r="D10">
-        <v>2.892756763190216</v>
+        <v>7.22919529242335</v>
       </c>
       <c r="E10">
-        <v>39.16676050694745</v>
+        <v>8.8995872455005</v>
       </c>
       <c r="F10">
-        <v>44.3515588335895</v>
+        <v>22.05630995669631</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>10.50712895119204</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.405567359587405</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -776,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>18.69892647287753</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>34.08716422401222</v>
+        <v>14.76610054214016</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.78175288756775</v>
+        <v>26.79385241403362</v>
       </c>
       <c r="C11">
-        <v>25.07151509988497</v>
+        <v>19.47972297084382</v>
       </c>
       <c r="D11">
-        <v>2.873837609648037</v>
+        <v>7.38102454831213</v>
       </c>
       <c r="E11">
-        <v>40.94825430393769</v>
+        <v>8.997204102061799</v>
       </c>
       <c r="F11">
-        <v>46.25508824427078</v>
+        <v>22.41128127183235</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>10.30049379355361</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.372276431424383</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>19.34816154264228</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>35.58186622172166</v>
+        <v>14.89571808759714</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.27001200941231</v>
+        <v>27.12768707702751</v>
       </c>
       <c r="C12">
-        <v>25.42663256873756</v>
+        <v>19.71999495504288</v>
       </c>
       <c r="D12">
-        <v>2.869323865376335</v>
+        <v>7.438162094154116</v>
       </c>
       <c r="E12">
-        <v>41.62313677895234</v>
+        <v>9.034924603698858</v>
       </c>
       <c r="F12">
-        <v>46.97622666001556</v>
+        <v>22.54982563736466</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>10.22562176135284</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.360171956035497</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>19.58903051505381</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>36.14833649512958</v>
+        <v>14.94883853068254</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.16506181187106</v>
+        <v>27.05610396119549</v>
       </c>
       <c r="C13">
-        <v>25.35027901686155</v>
+        <v>19.66847144481636</v>
       </c>
       <c r="D13">
-        <v>2.870168256535213</v>
+        <v>7.425872922938606</v>
       </c>
       <c r="E13">
-        <v>41.47773560681431</v>
+        <v>9.026767196698104</v>
       </c>
       <c r="F13">
-        <v>46.82087413820221</v>
+        <v>22.51980365368653</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>10.24158995226054</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.362756108174615</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>19.53737570492004</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>36.0262929517708</v>
+        <v>14.93721585623257</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.82201614219185</v>
+        <v>26.82145887341497</v>
       </c>
       <c r="C14">
-        <v>25.10078937777381</v>
+        <v>19.49959102157546</v>
       </c>
       <c r="D14">
-        <v>2.873409634662598</v>
+        <v>7.385732640192854</v>
       </c>
       <c r="E14">
-        <v>41.00375726598419</v>
+        <v>9.000292243112309</v>
       </c>
       <c r="F14">
-        <v>46.31440033517525</v>
+        <v>22.42259654375684</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>10.2942639755194</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.371270371446117</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>19.3680774878579</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>35.62845248915411</v>
+        <v>14.90000645874531</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.61127329744807</v>
+        <v>26.67681073270792</v>
       </c>
       <c r="C15">
-        <v>24.94758333148695</v>
+        <v>19.39549193383917</v>
       </c>
       <c r="D15">
-        <v>2.875758247222823</v>
+        <v>7.361098041500296</v>
       </c>
       <c r="E15">
-        <v>40.713541814432</v>
+        <v>8.984173978695505</v>
       </c>
       <c r="F15">
-        <v>46.00426306595323</v>
+        <v>22.36359253510227</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>10.32698029818137</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.37655178914386</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>19.26373036985305</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>35.3848663831981</v>
+        <v>14.87774542539555</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.39343012508078</v>
+        <v>25.83371126153935</v>
       </c>
       <c r="C16">
-        <v>24.06313800809577</v>
+        <v>18.78886396740972</v>
       </c>
       <c r="D16">
-        <v>2.89433207241965</v>
+        <v>7.219224902374759</v>
       </c>
       <c r="E16">
-        <v>39.05024123291788</v>
+        <v>8.893313292092444</v>
       </c>
       <c r="F16">
-        <v>44.22711153639592</v>
+        <v>22.03368693216393</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>10.52108349521777</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.40781181113307</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>18.65579704046255</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.98947074324017</v>
+        <v>14.75818527081169</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.63655343748724</v>
+        <v>25.30378164972421</v>
       </c>
       <c r="C17">
-        <v>23.5142123376957</v>
+        <v>18.40768295460544</v>
       </c>
       <c r="D17">
-        <v>2.909833906790367</v>
+        <v>7.131593716494389</v>
       </c>
       <c r="E17">
-        <v>38.02781881530677</v>
+        <v>8.838915590512933</v>
       </c>
       <c r="F17">
-        <v>43.13571543536096</v>
+        <v>21.83860665081628</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>10.64574873582863</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.427854976770687</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>18.2739133884379</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>33.13282396070263</v>
+        <v>14.69184306539338</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.19736984747591</v>
+        <v>24.99428304343014</v>
       </c>
       <c r="C18">
-        <v>23.19594708126765</v>
+        <v>18.18510181653745</v>
       </c>
       <c r="D18">
-        <v>2.920091966649816</v>
+        <v>7.080983890500299</v>
       </c>
       <c r="E18">
-        <v>37.43832098353729</v>
+        <v>8.808119983302266</v>
       </c>
       <c r="F18">
-        <v>42.50708675639493</v>
+        <v>21.72907295324623</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>10.71938826417927</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.439693498425688</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>18.05096199702656</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.63949696228392</v>
+        <v>14.65620048369738</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.04798616646128</v>
+        <v>24.88868316269375</v>
       </c>
       <c r="C19">
-        <v>23.08773408999025</v>
+        <v>18.10916528794903</v>
       </c>
       <c r="D19">
-        <v>2.923780910152623</v>
+        <v>7.06381402979615</v>
       </c>
       <c r="E19">
-        <v>37.23842303161042</v>
+        <v>8.797777626771984</v>
       </c>
       <c r="F19">
-        <v>42.29405270111049</v>
+        <v>21.69244408709664</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>10.74464313069676</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.443754358606986</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>17.97490571273887</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.47232823344077</v>
+        <v>14.64455889422628</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.71751701310513</v>
+        <v>25.36067915856808</v>
       </c>
       <c r="C20">
-        <v>23.57290469522972</v>
+        <v>18.44860523194473</v>
       </c>
       <c r="D20">
-        <v>2.908041267032154</v>
+        <v>7.140943891415443</v>
       </c>
       <c r="E20">
-        <v>38.13679084714311</v>
+        <v>8.844655326441869</v>
       </c>
       <c r="F20">
-        <v>43.25197865168198</v>
+        <v>21.85909647582264</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>10.63227504117485</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.42568906294983</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>18.31490690535955</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.224070295343</v>
+        <v>14.69864359722412</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.92290390140737</v>
+        <v>26.89057166720187</v>
       </c>
       <c r="C21">
-        <v>25.17414965578739</v>
+        <v>19.54933169031897</v>
       </c>
       <c r="D21">
-        <v>2.87238074939191</v>
+        <v>7.397532776933086</v>
       </c>
       <c r="E21">
-        <v>41.14294852616394</v>
+        <v>9.008048066097768</v>
       </c>
       <c r="F21">
-        <v>46.46314137763385</v>
+        <v>22.45103641892276</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>10.27869738739444</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.368755683840083</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>19.4179392191927</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.74528375087566</v>
+        <v>14.91082484535805</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.33589917630409</v>
+        <v>27.84914563773256</v>
       </c>
       <c r="C22">
-        <v>26.20278862375343</v>
+        <v>20.23936239226643</v>
       </c>
       <c r="D22">
-        <v>2.864859821616998</v>
+        <v>7.563134411250563</v>
       </c>
       <c r="E22">
-        <v>43.11068014446154</v>
+        <v>9.119237207171532</v>
       </c>
       <c r="F22">
-        <v>48.5646780604646</v>
+        <v>22.86195616814828</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>10.06751303003507</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.334486553840894</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>20.10982389566218</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>37.39656821190606</v>
+        <v>15.07310103097556</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.58402613315909</v>
+        <v>27.34128893145702</v>
       </c>
       <c r="C23">
-        <v>25.65515730253835</v>
+        <v>19.87374835888066</v>
       </c>
       <c r="D23">
-        <v>2.8672202286129</v>
+        <v>7.474952475112062</v>
       </c>
       <c r="E23">
-        <v>42.05930312588158</v>
+        <v>9.059489832908978</v>
       </c>
       <c r="F23">
-        <v>47.44217311557465</v>
+        <v>22.64042874686809</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>10.17826413512375</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.352498520931681</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>19.74318652025741</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>36.51441620943213</v>
+        <v>14.98427630096283</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.68092604074971</v>
+        <v>25.3349708605224</v>
       </c>
       <c r="C24">
-        <v>23.54637827798138</v>
+        <v>18.43011497364019</v>
       </c>
       <c r="D24">
-        <v>2.908847566899405</v>
+        <v>7.136717389180841</v>
       </c>
       <c r="E24">
-        <v>38.08753002560062</v>
+        <v>8.842058902043341</v>
       </c>
       <c r="F24">
-        <v>43.19941980461447</v>
+        <v>21.84982486668602</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>10.6383603971501</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.426667291972647</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>18.29638433517619</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.18282049988999</v>
+        <v>14.69556130844939</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.40025081681539</v>
+        <v>22.99098723548377</v>
       </c>
       <c r="C25">
-        <v>21.17310729768478</v>
+        <v>16.74522799558585</v>
       </c>
       <c r="D25">
-        <v>3.003761933107514</v>
+        <v>6.764177629799407</v>
       </c>
       <c r="E25">
-        <v>33.7437878637502</v>
+        <v>8.626337451649126</v>
       </c>
       <c r="F25">
-        <v>38.72395925197502</v>
+        <v>21.09886832908209</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.2075961572329</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.518447378584795</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>16.60934177156419</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>29.82852543293861</v>
+        <v>14.47945487960461</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_61/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.10762791054011</v>
+        <v>13.91848542527778</v>
       </c>
       <c r="C2">
-        <v>15.39307290267113</v>
+        <v>9.067267367789125</v>
       </c>
       <c r="D2">
-        <v>6.484897729506553</v>
+        <v>9.499106876410901</v>
       </c>
       <c r="E2">
-        <v>8.48349512777588</v>
+        <v>13.62590144479448</v>
       </c>
       <c r="F2">
-        <v>20.63100747963221</v>
+        <v>30.47522122678937</v>
       </c>
       <c r="I2">
-        <v>11.67826831046565</v>
+        <v>20.48835151856349</v>
       </c>
       <c r="J2">
-        <v>5.595333829481715</v>
+        <v>9.908396315229064</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.36647883904751</v>
+        <v>16.68047667615859</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.39486057354119</v>
+        <v>22.7119367478681</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.73178837533203</v>
+        <v>13.29949308189612</v>
       </c>
       <c r="C3">
-        <v>14.40642530655449</v>
+        <v>8.548197509756022</v>
       </c>
       <c r="D3">
-        <v>6.293522590188147</v>
+        <v>9.480893187953559</v>
       </c>
       <c r="E3">
-        <v>8.396529238988421</v>
+        <v>13.64908886173643</v>
       </c>
       <c r="F3">
-        <v>20.36512932788153</v>
+        <v>30.57476240681848</v>
       </c>
       <c r="I3">
-        <v>12.02503334919025</v>
+        <v>20.63619880020485</v>
       </c>
       <c r="J3">
-        <v>5.652889415160289</v>
+        <v>9.939428663107822</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.5123654201892</v>
+        <v>16.47699412924681</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.37986439532443</v>
+        <v>22.81734876917915</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.83762007680248</v>
+        <v>12.90461363996673</v>
       </c>
       <c r="C4">
-        <v>13.76580952780005</v>
+        <v>8.212467703286778</v>
       </c>
       <c r="D4">
-        <v>6.175363906082835</v>
+        <v>9.470867186237124</v>
       </c>
       <c r="E4">
-        <v>8.347922978583448</v>
+        <v>13.6655986273027</v>
       </c>
       <c r="F4">
-        <v>20.22630293053585</v>
+        <v>30.64500426764786</v>
       </c>
       <c r="I4">
-        <v>12.25049273344576</v>
+        <v>20.7322061525001</v>
       </c>
       <c r="J4">
-        <v>5.690810849049162</v>
+        <v>9.959712905702959</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -530,13 +530,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.96520743361216</v>
+        <v>16.35258396588184</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.39006493802995</v>
+        <v>22.88849551488509</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.46077975801724</v>
+        <v>12.74017034032925</v>
       </c>
       <c r="C5">
-        <v>13.49599074522653</v>
+        <v>8.071460690999109</v>
       </c>
       <c r="D5">
-        <v>6.127111988037093</v>
+        <v>9.467075182654199</v>
       </c>
       <c r="E5">
-        <v>8.329309307687481</v>
+        <v>13.67289778988152</v>
       </c>
       <c r="F5">
-        <v>20.17572613446638</v>
+        <v>30.67591310906784</v>
       </c>
       <c r="I5">
-        <v>12.34537524931773</v>
+        <v>20.77264501360665</v>
       </c>
       <c r="J5">
-        <v>5.706898877238169</v>
+        <v>9.968288673560075</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.73669816128814</v>
+        <v>16.30206831379333</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.39887613355933</v>
+        <v>22.91909751714355</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.3974522689681</v>
+        <v>12.71265802541993</v>
       </c>
       <c r="C6">
-        <v>13.45065824724321</v>
+        <v>8.047796123265611</v>
       </c>
       <c r="D6">
-        <v>6.11909559422747</v>
+        <v>9.466463334914298</v>
       </c>
       <c r="E6">
-        <v>8.326290252613367</v>
+        <v>13.67414430885814</v>
       </c>
       <c r="F6">
-        <v>20.16768534036257</v>
+        <v>30.68118320475525</v>
       </c>
       <c r="I6">
-        <v>12.36130803804157</v>
+        <v>20.77943929512415</v>
       </c>
       <c r="J6">
-        <v>5.709608214876106</v>
+        <v>9.969731395240117</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -612,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.69842587968868</v>
+        <v>16.29369269332696</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.40061363801721</v>
+        <v>22.92427596427829</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.83258836802488</v>
+        <v>12.9024098959611</v>
       </c>
       <c r="C7">
-        <v>13.76220614144478</v>
+        <v>8.210582889769672</v>
       </c>
       <c r="D7">
-        <v>6.174713487789986</v>
+        <v>9.470814853481842</v>
       </c>
       <c r="E7">
-        <v>8.347667130897705</v>
+        <v>13.66569475347215</v>
       </c>
       <c r="F7">
-        <v>20.22559676545726</v>
+        <v>30.64541187721266</v>
       </c>
       <c r="I7">
-        <v>12.25176036162202</v>
+        <v>20.73274619990976</v>
       </c>
       <c r="J7">
-        <v>5.691025266178681</v>
+        <v>9.959827306688304</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -653,13 +653,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.96214783644471</v>
+        <v>16.35190188996009</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.39016522567943</v>
+        <v>22.88890171702106</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.64346484151272</v>
+        <v>13.70824246506742</v>
       </c>
       <c r="C8">
-        <v>15.06009262611122</v>
+        <v>8.891869731625343</v>
       </c>
       <c r="D8">
-        <v>6.419083787639732</v>
+        <v>9.492588254213532</v>
       </c>
       <c r="E8">
-        <v>8.452508996635718</v>
+        <v>13.63342471333345</v>
       </c>
       <c r="F8">
-        <v>20.53418323353978</v>
+        <v>30.50764403209459</v>
       </c>
       <c r="I8">
-        <v>11.79513311815637</v>
+        <v>20.53824426593468</v>
       </c>
       <c r="J8">
-        <v>5.614633976443955</v>
+        <v>9.918841179649135</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -694,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.07679223590256</v>
+        <v>16.61023583591012</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.38552760304025</v>
+        <v>22.74694602450092</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.8048496558006</v>
+        <v>15.1635561742484</v>
       </c>
       <c r="C9">
-        <v>17.33001190904733</v>
+        <v>10.08996448237642</v>
       </c>
       <c r="D9">
-        <v>6.890562799188431</v>
+        <v>9.544344730787657</v>
       </c>
       <c r="E9">
-        <v>8.696504944956326</v>
+        <v>13.58818032652293</v>
       </c>
       <c r="F9">
-        <v>21.33841472618656</v>
+        <v>30.31026547139905</v>
       </c>
       <c r="I9">
-        <v>11.00717716680598</v>
+        <v>20.19829789033787</v>
       </c>
       <c r="J9">
-        <v>5.486033706063116</v>
+        <v>9.848210174333461</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -735,13 +735,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.1947069472381</v>
+        <v>17.1188522632496</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.54014863932295</v>
+        <v>22.51980530862416</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.89354518034727</v>
+        <v>16.14844179053456</v>
       </c>
       <c r="C10">
-        <v>18.83190847153394</v>
+        <v>10.88326654994804</v>
       </c>
       <c r="D10">
-        <v>7.22919529242335</v>
+        <v>9.587717946248635</v>
       </c>
       <c r="E10">
-        <v>8.8995872455005</v>
+        <v>13.56593848627274</v>
       </c>
       <c r="F10">
-        <v>22.05630995669631</v>
+        <v>30.21012615203031</v>
       </c>
       <c r="I10">
-        <v>10.50712895119204</v>
+        <v>19.97380191811712</v>
       </c>
       <c r="J10">
-        <v>5.405567359587405</v>
+        <v>9.802230790703762</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -776,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.69892647287753</v>
+        <v>17.49087948684345</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.76610054214016</v>
+        <v>22.38451855140818</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.79385241403362</v>
+        <v>16.57686778749527</v>
       </c>
       <c r="C11">
-        <v>19.47972297084382</v>
+        <v>11.22489590935839</v>
       </c>
       <c r="D11">
-        <v>7.38102454831213</v>
+        <v>9.608570010276937</v>
       </c>
       <c r="E11">
-        <v>8.997204102061799</v>
+        <v>13.55820732634665</v>
       </c>
       <c r="F11">
-        <v>22.41128127183235</v>
+        <v>30.17440855321444</v>
       </c>
       <c r="I11">
-        <v>10.30049379355361</v>
+        <v>19.87715656289764</v>
       </c>
       <c r="J11">
-        <v>5.372276431424383</v>
+        <v>9.782592147088407</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.34816154264228</v>
+        <v>17.65916527553283</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.89571808759714</v>
+        <v>22.32990817964417</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.12768707702751</v>
+        <v>16.73619600131225</v>
       </c>
       <c r="C12">
-        <v>19.71999495504288</v>
+        <v>11.35147220747716</v>
       </c>
       <c r="D12">
-        <v>7.438162094154116</v>
+        <v>9.616623646565142</v>
       </c>
       <c r="E12">
-        <v>9.034924603698858</v>
+        <v>13.55562265720552</v>
       </c>
       <c r="F12">
-        <v>22.54982563736466</v>
+        <v>30.16230423725458</v>
       </c>
       <c r="I12">
-        <v>10.22562176135284</v>
+        <v>19.84134766103173</v>
       </c>
       <c r="J12">
-        <v>5.360171956035497</v>
+        <v>9.775338837415552</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.58903051505381</v>
+        <v>17.72270502882546</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.94883853068254</v>
+        <v>22.31023149954709</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.05610396119549</v>
+        <v>16.70201238164894</v>
       </c>
       <c r="C13">
-        <v>19.66847144481636</v>
+        <v>11.32433618867892</v>
       </c>
       <c r="D13">
-        <v>7.425872922938606</v>
+        <v>9.614882213777477</v>
       </c>
       <c r="E13">
-        <v>9.026767196698104</v>
+        <v>13.55616406432212</v>
       </c>
       <c r="F13">
-        <v>22.51980365368653</v>
+        <v>30.164847813023</v>
       </c>
       <c r="I13">
-        <v>10.24158995226054</v>
+        <v>19.84902466271054</v>
       </c>
       <c r="J13">
-        <v>5.362756108174615</v>
+        <v>9.776892814530925</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.53737570492004</v>
+        <v>17.70902967325288</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.93721585623257</v>
+        <v>22.31442451476305</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.82145887341497</v>
+        <v>16.59003453921537</v>
       </c>
       <c r="C14">
-        <v>19.49959102157546</v>
+        <v>11.2353654718625</v>
       </c>
       <c r="D14">
-        <v>7.385732640192854</v>
+        <v>9.609229455566016</v>
       </c>
       <c r="E14">
-        <v>9.000292243112309</v>
+        <v>13.55798781264551</v>
       </c>
       <c r="F14">
-        <v>22.42259654375684</v>
+        <v>30.17338420593044</v>
       </c>
       <c r="I14">
-        <v>10.2942639755194</v>
+        <v>19.87419473370509</v>
       </c>
       <c r="J14">
-        <v>5.371270371446117</v>
+        <v>9.781991738644876</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.3680774878579</v>
+        <v>17.66439674499694</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.90000645874531</v>
+        <v>22.32826922893281</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.67681073270792</v>
+        <v>16.52106387158308</v>
       </c>
       <c r="C15">
-        <v>19.39549193383917</v>
+        <v>11.18050423790627</v>
       </c>
       <c r="D15">
-        <v>7.361098041500296</v>
+        <v>9.605787360972132</v>
       </c>
       <c r="E15">
-        <v>8.984173978695505</v>
+        <v>13.5591495642071</v>
       </c>
       <c r="F15">
-        <v>22.36359253510227</v>
+        <v>30.17879825653215</v>
       </c>
       <c r="I15">
-        <v>10.32698029818137</v>
+        <v>19.88971485134631</v>
       </c>
       <c r="J15">
-        <v>5.37655178914386</v>
+        <v>9.785138854634551</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.26373036985305</v>
+        <v>17.63703205963807</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.87774542539555</v>
+        <v>22.33688032932679</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.83371126153935</v>
+        <v>16.12004076985615</v>
       </c>
       <c r="C16">
-        <v>18.78886396740972</v>
+        <v>10.86055079218005</v>
       </c>
       <c r="D16">
-        <v>7.219224902374759</v>
+        <v>9.586377455139816</v>
       </c>
       <c r="E16">
-        <v>8.893313292092444</v>
+        <v>13.56649174377899</v>
       </c>
       <c r="F16">
-        <v>22.03368693216393</v>
+        <v>30.21265890430877</v>
       </c>
       <c r="I16">
-        <v>10.52108349521777</v>
+        <v>19.98022822950673</v>
       </c>
       <c r="J16">
-        <v>5.40781181113307</v>
+        <v>9.803539905143023</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.65579704046255</v>
+        <v>17.47985820052676</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.75818527081169</v>
+        <v>22.3882274986926</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.30378164972421</v>
+        <v>15.86893742706927</v>
       </c>
       <c r="C17">
-        <v>18.40768295460544</v>
+        <v>10.65932102884788</v>
       </c>
       <c r="D17">
-        <v>7.131593716494389</v>
+        <v>9.574754636227246</v>
       </c>
       <c r="E17">
-        <v>8.838915590512933</v>
+        <v>13.5716070899467</v>
       </c>
       <c r="F17">
-        <v>21.83860665081628</v>
+        <v>30.23595564852512</v>
       </c>
       <c r="I17">
-        <v>10.64574873582863</v>
+        <v>20.0371590288902</v>
       </c>
       <c r="J17">
-        <v>5.427854976770687</v>
+        <v>9.815155363474606</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.2739133884379</v>
+        <v>17.38315776848793</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.69184306539338</v>
+        <v>22.42150732452356</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.99428304343014</v>
+        <v>15.72266852319923</v>
       </c>
       <c r="C18">
-        <v>18.18510181653745</v>
+        <v>10.54176824124067</v>
       </c>
       <c r="D18">
-        <v>7.080983890500299</v>
+        <v>9.568175287156018</v>
       </c>
       <c r="E18">
-        <v>8.808119983302266</v>
+        <v>13.57477397778677</v>
       </c>
       <c r="F18">
-        <v>21.72907295324623</v>
+        <v>30.25028080320361</v>
       </c>
       <c r="I18">
-        <v>10.71938826417927</v>
+        <v>20.07041977551376</v>
       </c>
       <c r="J18">
-        <v>5.439693498425688</v>
+        <v>9.821956539827131</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.05096199702656</v>
+        <v>17.32745159362586</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.65620048369738</v>
+        <v>22.4413011331992</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.88868316269375</v>
+        <v>15.67283115085608</v>
       </c>
       <c r="C19">
-        <v>18.10916528794903</v>
+        <v>10.5016567153999</v>
       </c>
       <c r="D19">
-        <v>7.06381402979615</v>
+        <v>9.565965916297506</v>
       </c>
       <c r="E19">
-        <v>8.797777626771984</v>
+        <v>13.57588482607767</v>
       </c>
       <c r="F19">
-        <v>21.69244408709664</v>
+        <v>30.25528978974972</v>
       </c>
       <c r="I19">
-        <v>10.74464313069676</v>
+        <v>20.08176983749194</v>
       </c>
       <c r="J19">
-        <v>5.443754358606986</v>
+        <v>9.824279967397091</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.97490571273887</v>
+        <v>17.30857709222536</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.64455889422628</v>
+        <v>22.44811478875508</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.36067915856808</v>
+        <v>15.89585902090505</v>
       </c>
       <c r="C20">
-        <v>18.44860523194473</v>
+        <v>10.68092987761986</v>
       </c>
       <c r="D20">
-        <v>7.140943891415443</v>
+        <v>9.575980983690197</v>
       </c>
       <c r="E20">
-        <v>8.844655326441869</v>
+        <v>13.57103930103277</v>
       </c>
       <c r="F20">
-        <v>21.85909647582264</v>
+        <v>30.23337983508215</v>
       </c>
       <c r="I20">
-        <v>10.63227504117485</v>
+        <v>20.03104527473502</v>
       </c>
       <c r="J20">
-        <v>5.42568906294983</v>
+        <v>9.813906432610658</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.31490690535955</v>
+        <v>17.39346102556127</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.69864359722412</v>
+        <v>22.41789709124472</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.89057166720187</v>
+        <v>16.62300468485926</v>
       </c>
       <c r="C21">
-        <v>19.54933169031897</v>
+        <v>11.26157423952492</v>
       </c>
       <c r="D21">
-        <v>7.397532776933086</v>
+        <v>9.61088556694717</v>
       </c>
       <c r="E21">
-        <v>9.008048066097768</v>
+        <v>13.5574428285175</v>
       </c>
       <c r="F21">
-        <v>22.45103641892276</v>
+        <v>30.17083824078531</v>
       </c>
       <c r="I21">
-        <v>10.27869738739444</v>
+        <v>19.86678026498458</v>
       </c>
       <c r="J21">
-        <v>5.368755683840083</v>
+        <v>9.780489085456232</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.4179392191927</v>
+        <v>17.67751196631068</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.91082484535805</v>
+        <v>22.32417542852955</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.84914563773256</v>
+        <v>17.08125866131065</v>
       </c>
       <c r="C22">
-        <v>20.23936239226643</v>
+        <v>11.62478229008982</v>
       </c>
       <c r="D22">
-        <v>7.563134411250563</v>
+        <v>9.634613356513858</v>
       </c>
       <c r="E22">
-        <v>9.119237207171532</v>
+        <v>13.55055554384577</v>
       </c>
       <c r="F22">
-        <v>22.86195616814828</v>
+        <v>30.13824987805274</v>
       </c>
       <c r="I22">
-        <v>10.06751303003507</v>
+        <v>19.76402056382521</v>
       </c>
       <c r="J22">
-        <v>5.334486553840894</v>
+        <v>9.759717887474354</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.10982389566218</v>
+        <v>17.86204702248827</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.07310103097556</v>
+        <v>22.26877241194505</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.34128893145702</v>
+        <v>16.83825889104382</v>
       </c>
       <c r="C23">
-        <v>19.87374835888066</v>
+        <v>11.43242679329301</v>
       </c>
       <c r="D23">
-        <v>7.474952475112062</v>
+        <v>9.621866918084615</v>
       </c>
       <c r="E23">
-        <v>9.059489832908978</v>
+        <v>13.55404864169849</v>
       </c>
       <c r="F23">
-        <v>22.64042874686809</v>
+        <v>30.15488269889446</v>
       </c>
       <c r="I23">
-        <v>10.17826413512375</v>
+        <v>19.81844445159152</v>
       </c>
       <c r="J23">
-        <v>5.352498520931681</v>
+        <v>9.770706152753457</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.74318652025741</v>
+        <v>17.76367467475554</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.98427630096283</v>
+        <v>22.29780479713165</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.3349708605224</v>
+        <v>15.8836936990162</v>
       </c>
       <c r="C24">
-        <v>18.43011497364019</v>
+        <v>10.67116631848271</v>
       </c>
       <c r="D24">
-        <v>7.136717389180841</v>
+        <v>9.575426231624924</v>
       </c>
       <c r="E24">
-        <v>8.842058902043341</v>
+        <v>13.57129529439372</v>
       </c>
       <c r="F24">
-        <v>21.84982486668602</v>
+        <v>30.23454145912152</v>
       </c>
       <c r="I24">
-        <v>10.6383603971501</v>
+        <v>20.03380765060998</v>
       </c>
       <c r="J24">
-        <v>5.426667291972647</v>
+        <v>9.814470690172159</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.29638433517619</v>
+        <v>17.38880326749988</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.69556130844939</v>
+        <v>22.41952721981652</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.99098723548377</v>
+        <v>14.78415811793451</v>
       </c>
       <c r="C25">
-        <v>16.74522799558585</v>
+        <v>9.780953717132689</v>
       </c>
       <c r="D25">
-        <v>6.764177629799407</v>
+        <v>9.52939075391466</v>
       </c>
       <c r="E25">
-        <v>8.626337451649126</v>
+        <v>13.59848840861693</v>
       </c>
       <c r="F25">
-        <v>21.09886832908209</v>
+        <v>30.35581501023114</v>
       </c>
       <c r="I25">
-        <v>11.2075961572329</v>
+        <v>20.28582505695549</v>
       </c>
       <c r="J25">
-        <v>5.518447378584795</v>
+        <v>9.866277451939727</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.60934177156419</v>
+        <v>16.98134152761173</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.47945487960461</v>
+        <v>22.57573033383644</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_61/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.91848542527778</v>
+        <v>21.10762791054007</v>
       </c>
       <c r="C2">
-        <v>9.067267367789125</v>
+        <v>15.39307290267109</v>
       </c>
       <c r="D2">
-        <v>9.499106876410901</v>
+        <v>6.484897729506431</v>
       </c>
       <c r="E2">
-        <v>13.62590144479448</v>
+        <v>8.483495127775786</v>
       </c>
       <c r="F2">
-        <v>30.47522122678937</v>
+        <v>20.63100747963222</v>
       </c>
       <c r="I2">
-        <v>20.48835151856349</v>
+        <v>11.67826831046574</v>
       </c>
       <c r="J2">
-        <v>9.908396315229064</v>
+        <v>5.595333829481778</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.68047667615859</v>
+        <v>15.3664788390475</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.7119367478681</v>
+        <v>14.39486057354126</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.29949308189612</v>
+        <v>19.73178837533206</v>
       </c>
       <c r="C3">
-        <v>8.548197509756022</v>
+        <v>14.40642530655444</v>
       </c>
       <c r="D3">
-        <v>9.480893187953559</v>
+        <v>6.293522590188198</v>
       </c>
       <c r="E3">
-        <v>13.64908886173643</v>
+        <v>8.396529238988409</v>
       </c>
       <c r="F3">
-        <v>30.57476240681848</v>
+        <v>20.36512932788148</v>
       </c>
       <c r="I3">
-        <v>20.63619880020485</v>
+        <v>12.02503334919021</v>
       </c>
       <c r="J3">
-        <v>9.939428663107822</v>
+        <v>5.652889415160262</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.47699412924681</v>
+        <v>14.51236542018919</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.81734876917915</v>
+        <v>14.37986439532439</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.90461363996673</v>
+        <v>18.83762007680249</v>
       </c>
       <c r="C4">
-        <v>8.212467703286778</v>
+        <v>13.76580952780011</v>
       </c>
       <c r="D4">
-        <v>9.470867186237124</v>
+        <v>6.175363906082858</v>
       </c>
       <c r="E4">
-        <v>13.6655986273027</v>
+        <v>8.347922978583492</v>
       </c>
       <c r="F4">
-        <v>30.64500426764786</v>
+        <v>20.22630293053589</v>
       </c>
       <c r="I4">
-        <v>20.7322061525001</v>
+        <v>12.25049273344586</v>
       </c>
       <c r="J4">
-        <v>9.959712905702959</v>
+        <v>5.690810849049289</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -530,13 +530,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.35258396588184</v>
+        <v>13.96520743361216</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.88849551488509</v>
+        <v>14.39006493803001</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.74017034032925</v>
+        <v>18.46077975801727</v>
       </c>
       <c r="C5">
-        <v>8.071460690999109</v>
+        <v>13.49599074522654</v>
       </c>
       <c r="D5">
-        <v>9.467075182654199</v>
+        <v>6.127111988036957</v>
       </c>
       <c r="E5">
-        <v>13.67289778988152</v>
+        <v>8.329309307687206</v>
       </c>
       <c r="F5">
-        <v>30.67591310906784</v>
+        <v>20.17572613446618</v>
       </c>
       <c r="I5">
-        <v>20.77264501360665</v>
+        <v>12.34537524931763</v>
       </c>
       <c r="J5">
-        <v>9.968288673560075</v>
+        <v>5.706898877238106</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.30206831379333</v>
+        <v>13.73669816128807</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.91909751714355</v>
+        <v>14.39887613355925</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.71265802541993</v>
+        <v>18.39745226896814</v>
       </c>
       <c r="C6">
-        <v>8.047796123265611</v>
+        <v>13.45065824724323</v>
       </c>
       <c r="D6">
-        <v>9.466463334914298</v>
+        <v>6.119095594227498</v>
       </c>
       <c r="E6">
-        <v>13.67414430885814</v>
+        <v>8.326290252613465</v>
       </c>
       <c r="F6">
-        <v>30.68118320475525</v>
+        <v>20.16768534036263</v>
       </c>
       <c r="I6">
-        <v>20.77943929512415</v>
+        <v>12.36130803804164</v>
       </c>
       <c r="J6">
-        <v>9.969731395240117</v>
+        <v>5.70960821487617</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -612,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.29369269332696</v>
+        <v>13.69842587968868</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.92427596427829</v>
+        <v>14.40061363801723</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.9024098959611</v>
+        <v>18.83258836802489</v>
       </c>
       <c r="C7">
-        <v>8.210582889769672</v>
+        <v>13.76220614144475</v>
       </c>
       <c r="D7">
-        <v>9.470814853481842</v>
+        <v>6.174713487789911</v>
       </c>
       <c r="E7">
-        <v>13.66569475347215</v>
+        <v>8.347667130897749</v>
       </c>
       <c r="F7">
-        <v>30.64541187721266</v>
+        <v>20.22559676545724</v>
       </c>
       <c r="I7">
-        <v>20.73274619990976</v>
+        <v>12.25176036162201</v>
       </c>
       <c r="J7">
-        <v>9.959827306688304</v>
+        <v>5.691025266178749</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -653,13 +653,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.35190188996009</v>
+        <v>13.9621478364447</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.88890171702106</v>
+        <v>14.39016522567944</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.70824246506742</v>
+        <v>20.64346484151266</v>
       </c>
       <c r="C8">
-        <v>8.891869731625343</v>
+        <v>15.06009262611119</v>
       </c>
       <c r="D8">
-        <v>9.492588254213532</v>
+        <v>6.419083787639555</v>
       </c>
       <c r="E8">
-        <v>13.63342471333345</v>
+        <v>8.452508996635663</v>
       </c>
       <c r="F8">
-        <v>30.50764403209459</v>
+        <v>20.53418323354006</v>
       </c>
       <c r="I8">
-        <v>20.53824426593468</v>
+        <v>11.7951331181567</v>
       </c>
       <c r="J8">
-        <v>9.918841179649135</v>
+        <v>5.614633976443952</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -694,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.61023583591012</v>
+        <v>15.07679223590254</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.74694602450092</v>
+        <v>14.38552760304055</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.1635561742484</v>
+        <v>23.8048496558006</v>
       </c>
       <c r="C9">
-        <v>10.08996448237642</v>
+        <v>17.33001190904727</v>
       </c>
       <c r="D9">
-        <v>9.544344730787657</v>
+        <v>6.890562799188431</v>
       </c>
       <c r="E9">
-        <v>13.58818032652293</v>
+        <v>8.696504944956338</v>
       </c>
       <c r="F9">
-        <v>30.31026547139905</v>
+        <v>21.33841472618665</v>
       </c>
       <c r="I9">
-        <v>20.19829789033787</v>
+        <v>11.00717716680602</v>
       </c>
       <c r="J9">
-        <v>9.848210174333461</v>
+        <v>5.486033706063122</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -735,13 +735,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.1188522632496</v>
+        <v>17.1947069472381</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.51980530862416</v>
+        <v>14.54014863932302</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.14844179053456</v>
+        <v>25.8935451803472</v>
       </c>
       <c r="C10">
-        <v>10.88326654994804</v>
+        <v>18.83190847153389</v>
       </c>
       <c r="D10">
-        <v>9.587717946248635</v>
+        <v>7.229195292423338</v>
       </c>
       <c r="E10">
-        <v>13.56593848627274</v>
+        <v>8.899587245500436</v>
       </c>
       <c r="F10">
-        <v>30.21012615203031</v>
+        <v>22.05630995669649</v>
       </c>
       <c r="I10">
-        <v>19.97380191811712</v>
+        <v>10.50712895119226</v>
       </c>
       <c r="J10">
-        <v>9.802230790703762</v>
+        <v>5.405567359587401</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -776,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.49087948684345</v>
+        <v>18.69892647287749</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.38451855140818</v>
+        <v>14.76610054214031</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.57686778749527</v>
+        <v>26.79385241403371</v>
       </c>
       <c r="C11">
-        <v>11.22489590935839</v>
+        <v>19.47972297084377</v>
       </c>
       <c r="D11">
-        <v>9.608570010276937</v>
+        <v>7.381024548312108</v>
       </c>
       <c r="E11">
-        <v>13.55820732634665</v>
+        <v>8.99720410206176</v>
       </c>
       <c r="F11">
-        <v>30.17440855321444</v>
+        <v>22.4112812718322</v>
       </c>
       <c r="I11">
-        <v>19.87715656289764</v>
+        <v>10.30049379355344</v>
       </c>
       <c r="J11">
-        <v>9.782592147088407</v>
+        <v>5.37227643142438</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.65916527553283</v>
+        <v>19.34816154264235</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.32990817964417</v>
+        <v>14.89571808759704</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.73619600131225</v>
+        <v>27.12768707702747</v>
       </c>
       <c r="C12">
-        <v>11.35147220747716</v>
+        <v>19.71999495504294</v>
       </c>
       <c r="D12">
-        <v>9.616623646565142</v>
+        <v>7.438162094154205</v>
       </c>
       <c r="E12">
-        <v>13.55562265720552</v>
+        <v>9.034924603698883</v>
       </c>
       <c r="F12">
-        <v>30.16230423725458</v>
+        <v>22.54982563736475</v>
       </c>
       <c r="I12">
-        <v>19.84134766103173</v>
+        <v>10.22562176135287</v>
       </c>
       <c r="J12">
-        <v>9.775338837415552</v>
+        <v>5.360171956035442</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.72270502882546</v>
+        <v>19.58903051505379</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.31023149954709</v>
+        <v>14.94883853068259</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.70201238164894</v>
+        <v>27.05610396119545</v>
       </c>
       <c r="C13">
-        <v>11.32433618867892</v>
+        <v>19.66847144481641</v>
       </c>
       <c r="D13">
-        <v>9.614882213777477</v>
+        <v>7.425872922938598</v>
       </c>
       <c r="E13">
-        <v>13.55616406432212</v>
+        <v>9.026767196698106</v>
       </c>
       <c r="F13">
-        <v>30.164847813023</v>
+        <v>22.5198036536866</v>
       </c>
       <c r="I13">
-        <v>19.84902466271054</v>
+        <v>10.24158995226067</v>
       </c>
       <c r="J13">
-        <v>9.776892814530925</v>
+        <v>5.362756108174616</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.70902967325288</v>
+        <v>19.53737570492003</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.31442451476305</v>
+        <v>14.93721585623265</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.59003453921537</v>
+        <v>26.82145887341494</v>
       </c>
       <c r="C14">
-        <v>11.2353654718625</v>
+        <v>19.49959102157543</v>
       </c>
       <c r="D14">
-        <v>9.609229455566016</v>
+        <v>7.385732640192922</v>
       </c>
       <c r="E14">
-        <v>13.55798781264551</v>
+        <v>9.000292243112282</v>
       </c>
       <c r="F14">
-        <v>30.17338420593044</v>
+        <v>22.42259654375692</v>
       </c>
       <c r="I14">
-        <v>19.87419473370509</v>
+        <v>10.29426397551952</v>
       </c>
       <c r="J14">
-        <v>9.781991738644876</v>
+        <v>5.371270371446034</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.66439674499694</v>
+        <v>19.36807748785793</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.32826922893281</v>
+        <v>14.90000645874536</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.52106387158308</v>
+        <v>26.67681073270784</v>
       </c>
       <c r="C15">
-        <v>11.18050423790627</v>
+        <v>19.39549193383914</v>
       </c>
       <c r="D15">
-        <v>9.605787360972132</v>
+        <v>7.361098041500172</v>
       </c>
       <c r="E15">
-        <v>13.5591495642071</v>
+        <v>8.984173978695477</v>
       </c>
       <c r="F15">
-        <v>30.17879825653215</v>
+        <v>22.36359253510237</v>
       </c>
       <c r="I15">
-        <v>19.88971485134631</v>
+        <v>10.32698029818156</v>
       </c>
       <c r="J15">
-        <v>9.785138854634551</v>
+        <v>5.376551789143947</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.63703205963807</v>
+        <v>19.26373036985303</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.33688032932679</v>
+        <v>14.8777454253957</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.12004076985615</v>
+        <v>25.83371126153928</v>
       </c>
       <c r="C16">
-        <v>10.86055079218005</v>
+        <v>18.7888639674097</v>
       </c>
       <c r="D16">
-        <v>9.586377455139816</v>
+        <v>7.219224902374699</v>
       </c>
       <c r="E16">
-        <v>13.56649174377899</v>
+        <v>8.893313292092374</v>
       </c>
       <c r="F16">
-        <v>30.21265890430877</v>
+        <v>22.03368693216403</v>
       </c>
       <c r="I16">
-        <v>19.98022822950673</v>
+        <v>10.52108349521787</v>
       </c>
       <c r="J16">
-        <v>9.803539905143023</v>
+        <v>5.40781181113304</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.47985820052676</v>
+        <v>18.65579704046253</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.3882274986926</v>
+        <v>14.75818527081182</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.86893742706927</v>
+        <v>25.30378164972423</v>
       </c>
       <c r="C17">
-        <v>10.65932102884788</v>
+        <v>18.4076829546055</v>
       </c>
       <c r="D17">
-        <v>9.574754636227246</v>
+        <v>7.131593716494282</v>
       </c>
       <c r="E17">
-        <v>13.5716070899467</v>
+        <v>8.83891559051288</v>
       </c>
       <c r="F17">
-        <v>30.23595564852512</v>
+        <v>21.8386066508162</v>
       </c>
       <c r="I17">
-        <v>20.0371590288902</v>
+        <v>10.64574873582871</v>
       </c>
       <c r="J17">
-        <v>9.815155363474606</v>
+        <v>5.427854976770771</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.38315776848793</v>
+        <v>18.27391338843792</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.42150732452356</v>
+        <v>14.69184306539337</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.72266852319923</v>
+        <v>24.99428304343011</v>
       </c>
       <c r="C18">
-        <v>10.54176824124067</v>
+        <v>18.18510181653743</v>
       </c>
       <c r="D18">
-        <v>9.568175287156018</v>
+        <v>7.080983890500258</v>
       </c>
       <c r="E18">
-        <v>13.57477397778677</v>
+        <v>8.808119983302308</v>
       </c>
       <c r="F18">
-        <v>30.25028080320361</v>
+        <v>21.72907295324624</v>
       </c>
       <c r="I18">
-        <v>20.07041977551376</v>
+        <v>10.71938826417931</v>
       </c>
       <c r="J18">
-        <v>9.821956539827131</v>
+        <v>5.439693498425779</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.32745159362586</v>
+        <v>18.05096199702653</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.4413011331992</v>
+        <v>14.65620048369743</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.67283115085608</v>
+        <v>24.88868316269368</v>
       </c>
       <c r="C19">
-        <v>10.5016567153999</v>
+        <v>18.109165287949</v>
       </c>
       <c r="D19">
-        <v>9.565965916297506</v>
+        <v>7.063814029796137</v>
       </c>
       <c r="E19">
-        <v>13.57588482607767</v>
+        <v>8.797777626771893</v>
       </c>
       <c r="F19">
-        <v>30.25528978974972</v>
+        <v>21.69244408709677</v>
       </c>
       <c r="I19">
-        <v>20.08176983749194</v>
+        <v>10.74464313069694</v>
       </c>
       <c r="J19">
-        <v>9.824279967397091</v>
+        <v>5.443754358606986</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.30857709222536</v>
+        <v>17.97490571273883</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.44811478875508</v>
+        <v>14.6445588942264</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.89585902090505</v>
+        <v>25.36067915856803</v>
       </c>
       <c r="C20">
-        <v>10.68092987761986</v>
+        <v>18.44860523194471</v>
       </c>
       <c r="D20">
-        <v>9.575980983690197</v>
+        <v>7.140943891415397</v>
       </c>
       <c r="E20">
-        <v>13.57103930103277</v>
+        <v>8.844655326441798</v>
       </c>
       <c r="F20">
-        <v>30.23337983508215</v>
+        <v>21.8590964758226</v>
       </c>
       <c r="I20">
-        <v>20.03104527473502</v>
+        <v>10.63227504117479</v>
       </c>
       <c r="J20">
-        <v>9.813906432610658</v>
+        <v>5.425689062949774</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.39346102556127</v>
+        <v>18.31490690535954</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.41789709124472</v>
+        <v>14.69864359722411</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.62300468485926</v>
+        <v>26.89057166720194</v>
       </c>
       <c r="C21">
-        <v>11.26157423952492</v>
+        <v>19.54933169031894</v>
       </c>
       <c r="D21">
-        <v>9.61088556694717</v>
+        <v>7.397532776933015</v>
       </c>
       <c r="E21">
-        <v>13.5574428285175</v>
+        <v>9.008048066097743</v>
       </c>
       <c r="F21">
-        <v>30.17083824078531</v>
+        <v>22.45103641892271</v>
       </c>
       <c r="I21">
-        <v>19.86678026498458</v>
+        <v>10.27869738739438</v>
       </c>
       <c r="J21">
-        <v>9.780489085456232</v>
+        <v>5.368755683840055</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.67751196631068</v>
+        <v>19.41793921919272</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.32417542852955</v>
+        <v>14.910824845358</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.08125866131065</v>
+        <v>27.84914563773257</v>
       </c>
       <c r="C22">
-        <v>11.62478229008982</v>
+        <v>20.23936239226646</v>
       </c>
       <c r="D22">
-        <v>9.634613356513858</v>
+        <v>7.563134411250511</v>
       </c>
       <c r="E22">
-        <v>13.55055554384577</v>
+        <v>9.119237207171487</v>
       </c>
       <c r="F22">
-        <v>30.13824987805274</v>
+        <v>22.86195616814823</v>
       </c>
       <c r="I22">
-        <v>19.76402056382521</v>
+        <v>10.06751303003507</v>
       </c>
       <c r="J22">
-        <v>9.759717887474354</v>
+        <v>5.334486553840922</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.86204702248827</v>
+        <v>20.1098238956622</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.26877241194505</v>
+        <v>15.07310103097553</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.83825889104382</v>
+        <v>27.34128893145703</v>
       </c>
       <c r="C23">
-        <v>11.43242679329301</v>
+        <v>19.87374835888055</v>
       </c>
       <c r="D23">
-        <v>9.621866918084615</v>
+        <v>7.474952475112072</v>
       </c>
       <c r="E23">
-        <v>13.55404864169849</v>
+        <v>9.059489832908978</v>
       </c>
       <c r="F23">
-        <v>30.15488269889446</v>
+        <v>22.64042874686821</v>
       </c>
       <c r="I23">
-        <v>19.81844445159152</v>
+        <v>10.17826413512385</v>
       </c>
       <c r="J23">
-        <v>9.770706152753457</v>
+        <v>5.352498520931688</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.76367467475554</v>
+        <v>19.74318652025739</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.29780479713165</v>
+        <v>14.98427630096294</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.8836936990162</v>
+        <v>25.33497086052243</v>
       </c>
       <c r="C24">
-        <v>10.67116631848271</v>
+        <v>18.43011497364004</v>
       </c>
       <c r="D24">
-        <v>9.575426231624924</v>
+        <v>7.136717389180784</v>
       </c>
       <c r="E24">
-        <v>13.57129529439372</v>
+        <v>8.842058902043309</v>
       </c>
       <c r="F24">
-        <v>30.23454145912152</v>
+        <v>21.84982486668595</v>
       </c>
       <c r="I24">
-        <v>20.03380765060998</v>
+        <v>10.63836039715</v>
       </c>
       <c r="J24">
-        <v>9.814470690172159</v>
+        <v>5.426667291972651</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.38880326749988</v>
+        <v>18.29638433517621</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.41952721981652</v>
+        <v>14.69556130844935</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.78415811793451</v>
+        <v>22.99098723548377</v>
       </c>
       <c r="C25">
-        <v>9.780953717132689</v>
+        <v>16.74522799558574</v>
       </c>
       <c r="D25">
-        <v>9.52939075391466</v>
+        <v>6.764177629799317</v>
       </c>
       <c r="E25">
-        <v>13.59848840861693</v>
+        <v>8.626337451649043</v>
       </c>
       <c r="F25">
-        <v>30.35581501023114</v>
+        <v>21.09886832908207</v>
       </c>
       <c r="I25">
-        <v>20.28582505695549</v>
+        <v>11.20759615723287</v>
       </c>
       <c r="J25">
-        <v>9.866277451939727</v>
+        <v>5.518447378584801</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.98134152761173</v>
+        <v>16.60934177156421</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.57573033383644</v>
+        <v>14.4794548796046</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,989 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.10762791054007</v>
+        <v>24.60277563188459</v>
       </c>
       <c r="C2">
-        <v>15.39307290267109</v>
+        <v>19.76406470378582</v>
       </c>
       <c r="D2">
-        <v>6.484897729506431</v>
+        <v>4.360584866265256</v>
       </c>
       <c r="E2">
-        <v>8.483495127775786</v>
+        <v>29.36826086688366</v>
       </c>
       <c r="F2">
-        <v>20.63100747963222</v>
+        <v>17.53567374558292</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>3.255566941342409</v>
       </c>
       <c r="I2">
-        <v>11.67826831046574</v>
+        <v>3.353350335928969</v>
       </c>
       <c r="J2">
-        <v>5.595333829481778</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.86333606529819</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.3664788390475</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.39486057354126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>13.61028520358203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.73178837533206</v>
+        <v>23.00576417017524</v>
       </c>
       <c r="C3">
-        <v>14.40642530655444</v>
+        <v>18.56505841493646</v>
       </c>
       <c r="D3">
-        <v>6.293522590188198</v>
+        <v>4.200262447245012</v>
       </c>
       <c r="E3">
-        <v>8.396529238988409</v>
+        <v>27.48712810461648</v>
       </c>
       <c r="F3">
-        <v>20.36512932788148</v>
+        <v>16.97405038016701</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3.002763197718094</v>
       </c>
       <c r="I3">
-        <v>12.02503334919021</v>
+        <v>3.176301515689282</v>
       </c>
       <c r="J3">
-        <v>5.652889415160262</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>11.13203453487005</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.51236542018919</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.37986439532439</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>13.40495355931762</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.83762007680249</v>
+        <v>21.96633713410096</v>
       </c>
       <c r="C4">
-        <v>13.76580952780011</v>
+        <v>17.79332356617202</v>
       </c>
       <c r="D4">
-        <v>6.175363906082858</v>
+        <v>4.098463894429461</v>
       </c>
       <c r="E4">
-        <v>8.347922978583492</v>
+        <v>26.26806510598751</v>
       </c>
       <c r="F4">
-        <v>20.22630293053589</v>
+        <v>16.63254088513195</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2.842297390033171</v>
       </c>
       <c r="I4">
-        <v>12.25049273344586</v>
+        <v>3.064951964401812</v>
       </c>
       <c r="J4">
-        <v>5.690810849049289</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>11.30297566573502</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.96520743361216</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.39006493803001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>13.28693184005348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.46077975801727</v>
+        <v>21.52775435773676</v>
       </c>
       <c r="C5">
-        <v>13.49599074522654</v>
+        <v>17.48301344123803</v>
       </c>
       <c r="D5">
-        <v>6.127111988036957</v>
+        <v>4.058063987787594</v>
       </c>
       <c r="E5">
-        <v>8.329309307687206</v>
+        <v>25.7549598733927</v>
       </c>
       <c r="F5">
-        <v>20.17572613446618</v>
+        <v>16.48321751416002</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2.775436414997089</v>
       </c>
       <c r="I5">
-        <v>12.34537524931763</v>
+        <v>3.019296341820642</v>
       </c>
       <c r="J5">
-        <v>5.706898877238106</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>11.3683201754007</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.73669816128807</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.39887613355925</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>13.2321906570961</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.39745226896814</v>
+        <v>21.45381227207546</v>
       </c>
       <c r="C6">
-        <v>13.45065824724323</v>
+        <v>17.44691099595301</v>
       </c>
       <c r="D6">
-        <v>6.119095594227498</v>
+        <v>4.053633926823505</v>
       </c>
       <c r="E6">
-        <v>8.326290252613465</v>
+        <v>25.66852933346759</v>
       </c>
       <c r="F6">
-        <v>20.16768534036263</v>
+        <v>16.44484425039603</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2.764098955010346</v>
       </c>
       <c r="I6">
-        <v>12.36130803804164</v>
+        <v>3.012346847660572</v>
       </c>
       <c r="J6">
-        <v>5.70960821487617</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>11.37224673078092</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.69842587968868</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.40061363801723</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>13.21266805161472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.83258836802489</v>
+        <v>21.95990054654144</v>
       </c>
       <c r="C7">
-        <v>13.76220614144475</v>
+        <v>17.8318208265729</v>
       </c>
       <c r="D7">
-        <v>6.174713487789911</v>
+        <v>4.10421970801884</v>
       </c>
       <c r="E7">
-        <v>8.347667130897749</v>
+        <v>26.26052971066938</v>
       </c>
       <c r="F7">
-        <v>20.22559676545724</v>
+        <v>16.59366335646643</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2.84099135822273</v>
       </c>
       <c r="I7">
-        <v>12.25176036162201</v>
+        <v>3.065859322127786</v>
       </c>
       <c r="J7">
-        <v>5.691025266178749</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>11.28461937114325</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.9621478364447</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.39016522567944</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>13.25751417368163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.64346484151266</v>
+        <v>24.0636247363537</v>
       </c>
       <c r="C8">
-        <v>15.06009262611119</v>
+        <v>19.41054440154524</v>
       </c>
       <c r="D8">
-        <v>6.419083787639555</v>
+        <v>4.314094150347143</v>
       </c>
       <c r="E8">
-        <v>8.452508996635663</v>
+        <v>28.73210342394476</v>
       </c>
       <c r="F8">
-        <v>20.53418323354006</v>
+        <v>17.29460036027115</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>3.168969857101669</v>
       </c>
       <c r="I8">
-        <v>11.7951331181567</v>
+        <v>3.294405097064261</v>
       </c>
       <c r="J8">
-        <v>5.614633976443952</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.92888746782525</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.07679223590254</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.38552760304055</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>13.50062700720781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.8048496558006</v>
+        <v>27.72474375139356</v>
       </c>
       <c r="C9">
-        <v>17.33001190904727</v>
+        <v>22.15384555057418</v>
       </c>
       <c r="D9">
-        <v>6.890562799188431</v>
+        <v>4.687101137115235</v>
       </c>
       <c r="E9">
-        <v>8.696504944956338</v>
+        <v>33.07346118904587</v>
       </c>
       <c r="F9">
-        <v>21.33841472618665</v>
+        <v>18.75132056523001</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>3.772398748124608</v>
       </c>
       <c r="I9">
-        <v>11.00717716680602</v>
+        <v>3.720815997475134</v>
       </c>
       <c r="J9">
-        <v>5.486033706063122</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>10.31717608950651</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.1947069472381</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.54014863932302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>14.09290311076317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.8935451803472</v>
+        <v>30.130060243064</v>
       </c>
       <c r="C10">
-        <v>18.83190847153389</v>
+        <v>23.97442199472631</v>
       </c>
       <c r="D10">
-        <v>7.229195292423338</v>
+        <v>4.978675427331571</v>
       </c>
       <c r="E10">
-        <v>8.899587245500436</v>
+        <v>35.07988689170661</v>
       </c>
       <c r="F10">
-        <v>22.05630995669649</v>
+        <v>19.64774907396519</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.155476322260876</v>
       </c>
       <c r="I10">
-        <v>10.50712895119226</v>
+        <v>4.01668277751694</v>
       </c>
       <c r="J10">
-        <v>5.405567359587401</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>9.831086450018931</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.69892647287749</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.76610054214031</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>14.42487488912315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.79385241403371</v>
+        <v>31.13311781442976</v>
       </c>
       <c r="C11">
-        <v>19.47972297084377</v>
+        <v>24.49765135076025</v>
       </c>
       <c r="D11">
-        <v>7.381024548312108</v>
+        <v>5.403836372019952</v>
       </c>
       <c r="E11">
-        <v>8.99720410206176</v>
+        <v>28.48120827890841</v>
       </c>
       <c r="F11">
-        <v>22.4112812718322</v>
+        <v>18.61239887072536</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.513280836272198</v>
       </c>
       <c r="I11">
-        <v>10.30049379355344</v>
+        <v>4.094441237815285</v>
       </c>
       <c r="J11">
-        <v>5.37227643142438</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>9.070271515233024</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.34816154264235</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.89571808759704</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13.40532920036155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.12768707702747</v>
+        <v>31.49451196848041</v>
       </c>
       <c r="C12">
-        <v>19.71999495504294</v>
+        <v>24.52037424911105</v>
       </c>
       <c r="D12">
-        <v>7.438162094154205</v>
+        <v>5.700691615780798</v>
       </c>
       <c r="E12">
-        <v>9.034924603698883</v>
+        <v>22.53729932463938</v>
       </c>
       <c r="F12">
-        <v>22.54982563736475</v>
+        <v>17.57967523860795</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>5.317645899437144</v>
       </c>
       <c r="I12">
-        <v>10.22562176135287</v>
+        <v>4.102679171335448</v>
       </c>
       <c r="J12">
-        <v>5.360171956035442</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>8.612764148136451</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.58903051505379</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.94883853068259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>12.50190027652248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.05610396119545</v>
+        <v>31.39614464415071</v>
       </c>
       <c r="C13">
-        <v>19.66847144481641</v>
+        <v>24.21175393944986</v>
       </c>
       <c r="D13">
-        <v>7.425872922938598</v>
+        <v>5.929825889809068</v>
       </c>
       <c r="E13">
-        <v>9.026767196698106</v>
+        <v>16.62996541715722</v>
       </c>
       <c r="F13">
-        <v>22.5198036536866</v>
+        <v>16.41114483539224</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>6.335983334489794</v>
       </c>
       <c r="I13">
-        <v>10.24158995226067</v>
+        <v>4.060356001231568</v>
       </c>
       <c r="J13">
-        <v>5.362756108174616</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>8.345427090589707</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.53737570492003</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.93721585623265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11.58239171460075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.82145887341494</v>
+        <v>31.11837749512621</v>
       </c>
       <c r="C14">
-        <v>19.49959102157543</v>
+        <v>23.85262921178345</v>
       </c>
       <c r="D14">
-        <v>7.385732640192922</v>
+        <v>6.063665617075342</v>
       </c>
       <c r="E14">
-        <v>9.000292243112282</v>
+        <v>12.57955143305073</v>
       </c>
       <c r="F14">
-        <v>22.42259654375692</v>
+        <v>15.51241440451843</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>7.134019031998272</v>
       </c>
       <c r="I14">
-        <v>10.29426397551952</v>
+        <v>4.009328203930218</v>
       </c>
       <c r="J14">
-        <v>5.371270371446034</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>8.257694838147698</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.36807748785793</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.90000645874536</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>10.92553190857353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.67681073270784</v>
+        <v>30.95077628097662</v>
       </c>
       <c r="C15">
-        <v>19.39549193383914</v>
+        <v>23.70556254443237</v>
       </c>
       <c r="D15">
-        <v>7.361098041500172</v>
+        <v>6.083914237559364</v>
       </c>
       <c r="E15">
-        <v>8.984173978695477</v>
+        <v>11.60908599948992</v>
       </c>
       <c r="F15">
-        <v>22.36359253510237</v>
+        <v>15.25281682027721</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>7.317714130658335</v>
       </c>
       <c r="I15">
-        <v>10.32698029818156</v>
+        <v>3.986126884927402</v>
       </c>
       <c r="J15">
-        <v>5.376551789143947</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>8.267638425009622</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.26373036985303</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.8777454253957</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10.75531045394931</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.83371126153928</v>
+        <v>29.9857304555121</v>
       </c>
       <c r="C16">
-        <v>18.7888639674097</v>
+        <v>23.02398614820423</v>
       </c>
       <c r="D16">
-        <v>7.219224902374699</v>
+        <v>5.930707685101315</v>
       </c>
       <c r="E16">
-        <v>8.893313292092374</v>
+        <v>11.48384384520966</v>
       </c>
       <c r="F16">
-        <v>22.03368693216403</v>
+        <v>15.02328103270002</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>7.038705537868707</v>
       </c>
       <c r="I16">
-        <v>10.52108349521787</v>
+        <v>3.870679655930177</v>
       </c>
       <c r="J16">
-        <v>5.40781181113304</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>8.538516513015026</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.65579704046253</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.75818527081182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10.76403566085488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.30378164972423</v>
+        <v>29.38303266378028</v>
       </c>
       <c r="C17">
-        <v>18.4076829546055</v>
+        <v>22.69143568748193</v>
       </c>
       <c r="D17">
-        <v>7.131593716494282</v>
+        <v>5.737200497926887</v>
       </c>
       <c r="E17">
-        <v>8.83891559051288</v>
+        <v>13.57410816044465</v>
       </c>
       <c r="F17">
-        <v>21.8386066508162</v>
+        <v>15.3425137322636</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>6.349514912989722</v>
       </c>
       <c r="I17">
-        <v>10.64574873582871</v>
+        <v>3.80866417001883</v>
       </c>
       <c r="J17">
-        <v>5.427854976770771</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>8.782024579079209</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.27391338843792</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.69184306539337</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>11.122385635391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.99428304343011</v>
+        <v>29.03947592080829</v>
       </c>
       <c r="C18">
-        <v>18.18510181653743</v>
+        <v>22.60401318961989</v>
       </c>
       <c r="D18">
-        <v>7.080983890500258</v>
+        <v>5.484841528436187</v>
       </c>
       <c r="E18">
-        <v>8.808119983302308</v>
+        <v>18.11928057077202</v>
       </c>
       <c r="F18">
-        <v>21.72907295324624</v>
+        <v>16.18940118667823</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>5.317272673076219</v>
       </c>
       <c r="I18">
-        <v>10.71938826417931</v>
+        <v>3.786694603800046</v>
       </c>
       <c r="J18">
-        <v>5.439693498425779</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>9.073117852224753</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.05096199702653</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.65620048369743</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11.84080133335445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.88868316269368</v>
+        <v>28.93650428797732</v>
       </c>
       <c r="C19">
-        <v>18.109165287949</v>
+        <v>22.79095877747314</v>
       </c>
       <c r="D19">
-        <v>7.063814029796137</v>
+        <v>5.221319613334339</v>
       </c>
       <c r="E19">
-        <v>8.797777626771893</v>
+        <v>24.38555502482325</v>
       </c>
       <c r="F19">
-        <v>21.69244408709677</v>
+        <v>17.32637429341761</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.343652352658927</v>
       </c>
       <c r="I19">
-        <v>10.74464313069694</v>
+        <v>3.809169142798088</v>
       </c>
       <c r="J19">
-        <v>5.443754358606986</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>9.409885279067822</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.97490571273883</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.6445588942264</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12.75305776806443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.36067915856803</v>
+        <v>29.51573145936585</v>
       </c>
       <c r="C20">
-        <v>18.44860523194471</v>
+        <v>23.61096206083441</v>
       </c>
       <c r="D20">
-        <v>7.140943891415397</v>
+        <v>4.922554549546257</v>
       </c>
       <c r="E20">
-        <v>8.844655326441798</v>
+        <v>34.52370774629477</v>
       </c>
       <c r="F20">
-        <v>21.8590964758226</v>
+        <v>19.3062156678433</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.052781545764967</v>
       </c>
       <c r="I20">
-        <v>10.63227504117479</v>
+        <v>3.94514467343609</v>
       </c>
       <c r="J20">
-        <v>5.425689062949774</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>9.890821949660861</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.31490690535954</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.69864359722411</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>14.2470951876233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.89057166720194</v>
+        <v>31.28004377255327</v>
       </c>
       <c r="C21">
-        <v>19.54933169031894</v>
+        <v>24.98367691068801</v>
       </c>
       <c r="D21">
-        <v>7.397532776933015</v>
+        <v>5.084848065432758</v>
       </c>
       <c r="E21">
-        <v>9.008048066097743</v>
+        <v>37.33739079230071</v>
       </c>
       <c r="F21">
-        <v>22.45103641892271</v>
+        <v>20.27016820020789</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.398909824809328</v>
       </c>
       <c r="I21">
-        <v>10.27869738739438</v>
+        <v>4.179027700958154</v>
       </c>
       <c r="J21">
-        <v>5.368755683840055</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>9.641550266993354</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.41793921919272</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.910824845358</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>14.73975297767859</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.84914563773257</v>
+        <v>32.38177421087249</v>
       </c>
       <c r="C22">
-        <v>20.23936239226646</v>
+        <v>25.79030971876439</v>
       </c>
       <c r="D22">
-        <v>7.563134411250511</v>
+        <v>5.19742629556553</v>
       </c>
       <c r="E22">
-        <v>9.119237207171487</v>
+        <v>38.66838690452888</v>
       </c>
       <c r="F22">
-        <v>22.86195616814823</v>
+        <v>20.85345609500514</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.602285990844698</v>
       </c>
       <c r="I22">
-        <v>10.06751303003507</v>
+        <v>4.324386852515666</v>
       </c>
       <c r="J22">
-        <v>5.334486553840922</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>9.483431126839278</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.1098238956622</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.07310103097553</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>15.03438980549794</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.34128893145703</v>
+        <v>31.79877535485291</v>
       </c>
       <c r="C23">
-        <v>19.87374835888055</v>
+        <v>25.32535262184319</v>
       </c>
       <c r="D23">
-        <v>7.474952475112072</v>
+        <v>5.131277889010574</v>
       </c>
       <c r="E23">
-        <v>9.059489832908978</v>
+        <v>37.96348346920408</v>
       </c>
       <c r="F23">
-        <v>22.64042874686821</v>
+        <v>20.57759097462845</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.494410452336441</v>
       </c>
       <c r="I23">
-        <v>10.17826413512385</v>
+        <v>4.24472852952593</v>
       </c>
       <c r="J23">
-        <v>5.352498520931688</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>9.591453697545466</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.74318652025739</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.98427630096294</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>14.90628812047511</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.33497086052243</v>
+        <v>29.48985513202322</v>
       </c>
       <c r="C24">
-        <v>18.43011497364004</v>
+        <v>23.55751643287576</v>
       </c>
       <c r="D24">
-        <v>7.136717389180784</v>
+        <v>4.883354512980766</v>
       </c>
       <c r="E24">
-        <v>8.842058902043309</v>
+        <v>35.18445653200594</v>
       </c>
       <c r="F24">
-        <v>21.84982486668595</v>
+        <v>19.47700618433148</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.078158881894858</v>
       </c>
       <c r="I24">
-        <v>10.63836039715</v>
+        <v>3.943052303589064</v>
       </c>
       <c r="J24">
-        <v>5.426667291972651</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>9.981097696605486</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.29638433517621</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.69556130844935</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>14.39161566824498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.99098723548377</v>
+        <v>26.78297561817203</v>
       </c>
       <c r="C25">
-        <v>16.74522799558574</v>
+        <v>21.50753279777877</v>
       </c>
       <c r="D25">
-        <v>6.764177629799317</v>
+        <v>4.599851270317474</v>
       </c>
       <c r="E25">
-        <v>8.626337451649043</v>
+        <v>31.95191898907783</v>
       </c>
       <c r="F25">
-        <v>21.09886832908207</v>
+        <v>18.29587300704317</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>3.612681208327099</v>
       </c>
       <c r="I25">
-        <v>11.20759615723287</v>
+        <v>3.610300788463035</v>
       </c>
       <c r="J25">
-        <v>5.518447378584801</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>10.44067940480564</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.60934177156421</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.4794548796046</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13.8764115243994</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.60277563188459</v>
+        <v>24.61031245591208</v>
       </c>
       <c r="C2">
-        <v>19.76406470378582</v>
+        <v>20.09649198705435</v>
       </c>
       <c r="D2">
-        <v>4.360584866265256</v>
+        <v>4.407727593389302</v>
       </c>
       <c r="E2">
-        <v>29.36826086688366</v>
+        <v>29.37582419073892</v>
       </c>
       <c r="F2">
-        <v>17.53567374558292</v>
+        <v>17.20209572102921</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>3.255566941342409</v>
+        <v>3.260223451201667</v>
       </c>
       <c r="I2">
-        <v>3.353350335928969</v>
+        <v>3.368496537022356</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>10.86333606529819</v>
+        <v>10.64124241958195</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.15934831622872</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.584884312589696</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -472,48 +478,54 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.61028520358203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.33567205365668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.00576417017524</v>
+        <v>23.02284105422042</v>
       </c>
       <c r="C3">
-        <v>18.56505841493646</v>
+        <v>18.79766599187672</v>
       </c>
       <c r="D3">
-        <v>4.200262447245012</v>
+        <v>4.22705290883082</v>
       </c>
       <c r="E3">
-        <v>27.48712810461648</v>
+        <v>27.50498404039889</v>
       </c>
       <c r="F3">
-        <v>16.97405038016701</v>
+        <v>16.7044688555652</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.002763197718094</v>
+        <v>3.013608204280325</v>
       </c>
       <c r="I3">
-        <v>3.176301515689282</v>
+        <v>3.209248816977207</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>11.13203453487005</v>
+        <v>10.92346173600728</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.39244435377305</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>5.793900803493448</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -525,48 +537,54 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.40495355931762</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.17810329813593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.96633713410096</v>
+        <v>21.98959557068491</v>
       </c>
       <c r="C4">
-        <v>17.79332356617202</v>
+        <v>17.96051862204741</v>
       </c>
       <c r="D4">
-        <v>4.098463894429461</v>
+        <v>4.112336273858974</v>
       </c>
       <c r="E4">
-        <v>26.26806510598751</v>
+        <v>26.29256182079091</v>
       </c>
       <c r="F4">
-        <v>16.63254088513195</v>
+        <v>16.40157637108172</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.842297390033171</v>
+        <v>2.857013408194132</v>
       </c>
       <c r="I4">
-        <v>3.064951964401812</v>
+        <v>3.109206376898586</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>11.30297566573502</v>
+        <v>11.100955384377</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.54070572431928</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>5.947897444126989</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -578,48 +596,54 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.28693184005348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.0880915849567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.52775435773676</v>
+        <v>21.55362684732002</v>
       </c>
       <c r="C5">
-        <v>17.48301344123803</v>
+        <v>17.62203312430632</v>
       </c>
       <c r="D5">
-        <v>4.058063987787594</v>
+        <v>4.066530377336529</v>
       </c>
       <c r="E5">
-        <v>25.7549598733927</v>
+        <v>25.78225786372644</v>
       </c>
       <c r="F5">
-        <v>16.48321751416002</v>
+        <v>16.26827248673242</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.775436414997089</v>
+        <v>2.791751073186834</v>
       </c>
       <c r="I5">
-        <v>3.019296341820642</v>
+        <v>3.068477374315427</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>11.3683201754007</v>
+        <v>11.16903354693326</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.5972320212531</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.014259297402061</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -631,48 +655,54 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.2321906570961</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.04483077280887</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.45381227207546</v>
+        <v>21.48012320029282</v>
       </c>
       <c r="C6">
-        <v>17.44691099595301</v>
+        <v>17.5805943024244</v>
       </c>
       <c r="D6">
-        <v>4.053633926823505</v>
+        <v>4.061139750467819</v>
       </c>
       <c r="E6">
-        <v>25.66852933346759</v>
+        <v>25.69630064826525</v>
       </c>
       <c r="F6">
-        <v>16.44484425039603</v>
+        <v>16.23317417457382</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.764098955010346</v>
+        <v>2.780682300159982</v>
       </c>
       <c r="I6">
-        <v>3.012346847660572</v>
+        <v>3.062657509188004</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>11.37224673078092</v>
+        <v>11.17395981677988</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.60038020263175</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.022723388312022</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -684,48 +714,54 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.21266805161472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.02771138065384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.95990054654144</v>
+        <v>21.98319002837007</v>
       </c>
       <c r="C7">
-        <v>17.8318208265729</v>
+        <v>17.99703580080102</v>
       </c>
       <c r="D7">
-        <v>4.10421970801884</v>
+        <v>4.117867127078636</v>
       </c>
       <c r="E7">
-        <v>26.26052971066938</v>
+        <v>26.28507073872261</v>
       </c>
       <c r="F7">
-        <v>16.59366335646643</v>
+        <v>16.36464546118244</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.84099135822273</v>
+        <v>2.855734701645064</v>
       </c>
       <c r="I7">
-        <v>3.065859322127786</v>
+        <v>3.110956807890697</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>11.28461937114325</v>
+        <v>11.08431767395403</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.52482560398629</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>5.939907754471398</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -737,48 +773,54 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.25751417368163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.06027573362742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.0636247363537</v>
+        <v>24.07439337740503</v>
       </c>
       <c r="C8">
-        <v>19.41054440154524</v>
+        <v>19.70737968741356</v>
       </c>
       <c r="D8">
-        <v>4.314094150347143</v>
+        <v>4.354124012758064</v>
       </c>
       <c r="E8">
-        <v>28.73210342394476</v>
+        <v>28.74316997950658</v>
       </c>
       <c r="F8">
-        <v>17.29460036027115</v>
+        <v>16.98546582888068</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3.168969857101669</v>
+        <v>3.175755757683141</v>
       </c>
       <c r="I8">
-        <v>3.294405097064261</v>
+        <v>3.316561204781459</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>10.92888746782525</v>
+        <v>10.71459855109548</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.21925039143016</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5.635628120203747</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -790,48 +832,54 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.50062700720781</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.2447266298717</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.72474375139356</v>
+        <v>27.71294924470239</v>
       </c>
       <c r="C9">
-        <v>22.15384555057418</v>
+        <v>22.6787252142822</v>
       </c>
       <c r="D9">
-        <v>4.687101137115235</v>
+        <v>4.775362548522114</v>
       </c>
       <c r="E9">
-        <v>33.07346118904587</v>
+        <v>33.06013320327861</v>
       </c>
       <c r="F9">
-        <v>18.75132056523001</v>
+        <v>18.2791346033349</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.772398748124608</v>
+        <v>3.764052532684623</v>
       </c>
       <c r="I9">
-        <v>3.720815997475134</v>
+        <v>3.699651257349148</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>10.31717608950651</v>
+        <v>10.05555124639294</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.685689283151426</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5.287665022132685</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -843,48 +891,54 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.09290311076317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.71006110306241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.130060243064</v>
+        <v>30.10263413657039</v>
       </c>
       <c r="C10">
-        <v>23.97442199472631</v>
+        <v>24.63060916391078</v>
       </c>
       <c r="D10">
-        <v>4.978675427331571</v>
+        <v>5.097332350066404</v>
       </c>
       <c r="E10">
-        <v>35.07988689170661</v>
+        <v>35.04963034492105</v>
       </c>
       <c r="F10">
-        <v>19.64774907396519</v>
+        <v>19.07301434114067</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.155476322260876</v>
+        <v>4.13651739972435</v>
       </c>
       <c r="I10">
-        <v>4.01668277751694</v>
+        <v>3.96637196266886</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>9.831086450018931</v>
+        <v>9.53896058681115</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.284490386007368</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5.13730214292977</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -896,48 +950,54 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.42487488912315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.95933266638853</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.13311781442976</v>
+        <v>31.10180962244831</v>
       </c>
       <c r="C11">
-        <v>24.49765135076025</v>
+        <v>25.07369965132548</v>
       </c>
       <c r="D11">
-        <v>5.403836372019952</v>
+        <v>5.514462578029748</v>
       </c>
       <c r="E11">
-        <v>28.48120827890841</v>
+        <v>28.44517902986131</v>
       </c>
       <c r="F11">
-        <v>18.61239887072536</v>
+        <v>18.12425099964383</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.513280836272198</v>
+        <v>4.494325627031427</v>
       </c>
       <c r="I11">
-        <v>4.094441237815285</v>
+        <v>4.038013279508631</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>9.070271515233024</v>
+        <v>8.901213860937096</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.891900956073567</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4.611765117427846</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -949,48 +1009,54 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.40532920036155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.02050974771161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.49451196848041</v>
+        <v>31.46276894512145</v>
       </c>
       <c r="C12">
-        <v>24.52037424911105</v>
+        <v>25.00359798248163</v>
       </c>
       <c r="D12">
-        <v>5.700691615780798</v>
+        <v>5.796842244644385</v>
       </c>
       <c r="E12">
-        <v>22.53729932463938</v>
+        <v>22.497687535834</v>
       </c>
       <c r="F12">
-        <v>17.57967523860795</v>
+        <v>17.18466128238333</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5.317645899437144</v>
+        <v>5.302039563974704</v>
       </c>
       <c r="I12">
-        <v>4.102679171335448</v>
+        <v>4.045035422294223</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>8.612764148136451</v>
+        <v>8.542150415131863</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.703154828023244</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.228558961639736</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1002,48 +1068,54 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12.50190027652248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.20123698451772</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.39614464415071</v>
+        <v>31.36658233162516</v>
       </c>
       <c r="C13">
-        <v>24.21175393944986</v>
+        <v>24.58216230061316</v>
       </c>
       <c r="D13">
-        <v>5.929825889809068</v>
+        <v>6.005681275825227</v>
       </c>
       <c r="E13">
-        <v>16.62996541715722</v>
+        <v>16.58724716213047</v>
       </c>
       <c r="F13">
-        <v>16.41114483539224</v>
+        <v>16.12490602081522</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6.335983334489794</v>
+        <v>6.324327559329948</v>
       </c>
       <c r="I13">
-        <v>4.060356001231568</v>
+        <v>4.006443911829568</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>8.345427090589707</v>
+        <v>8.355674997392162</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.620902540163616</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>3.935268981104447</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1055,48 +1127,54 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.58239171460075</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>11.37687183200373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.11837749512621</v>
+        <v>31.0914509341589</v>
       </c>
       <c r="C14">
-        <v>23.85262921178345</v>
+        <v>24.13310500164127</v>
       </c>
       <c r="D14">
-        <v>6.063665617075342</v>
+        <v>6.122392179718286</v>
       </c>
       <c r="E14">
-        <v>12.57955143305073</v>
+        <v>12.53360194542055</v>
       </c>
       <c r="F14">
-        <v>15.51241440451843</v>
+        <v>15.31077371309709</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.134019031998272</v>
+        <v>7.124882617067929</v>
       </c>
       <c r="I14">
-        <v>4.009328203930218</v>
+        <v>3.960439188869242</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>8.257694838147698</v>
+        <v>8.310111706111682</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.605652027795868</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>3.797992004658101</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1108,48 +1186,54 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10.92553190857353</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.79153031412112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.95077628097662</v>
+        <v>30.92509923905477</v>
       </c>
       <c r="C15">
-        <v>23.70556254443237</v>
+        <v>23.95890103771641</v>
       </c>
       <c r="D15">
-        <v>6.083914237559364</v>
+        <v>6.13727591673858</v>
       </c>
       <c r="E15">
-        <v>11.60908599948992</v>
+        <v>11.56294026594647</v>
       </c>
       <c r="F15">
-        <v>15.25281682027721</v>
+        <v>15.07576426424521</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.317714130658335</v>
+        <v>7.309310497616845</v>
       </c>
       <c r="I15">
-        <v>3.986126884927402</v>
+        <v>3.94001109455881</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>8.267638425009622</v>
+        <v>8.327205988768423</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.614338650148559</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3.78693067761954</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1161,48 +1245,54 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10.75531045394931</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10.64125316501434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.9857304555121</v>
+        <v>29.96613626114416</v>
       </c>
       <c r="C16">
-        <v>23.02398614820423</v>
+        <v>23.23700767506679</v>
       </c>
       <c r="D16">
-        <v>5.930707685101315</v>
+        <v>5.97501839329527</v>
       </c>
       <c r="E16">
-        <v>11.48384384520966</v>
+        <v>11.44849006668503</v>
       </c>
       <c r="F16">
-        <v>15.02328103270002</v>
+        <v>14.87443875859403</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.038705537868707</v>
+        <v>7.032298522570575</v>
       </c>
       <c r="I16">
-        <v>3.870679655930177</v>
+        <v>3.836685004001976</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>8.538516513015026</v>
+        <v>8.579772732373831</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.729865596040609</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>3.981610898979735</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1214,48 +1304,54 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10.76403566085488</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.66778789509612</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.38303266378028</v>
+        <v>29.36675812193717</v>
       </c>
       <c r="C17">
-        <v>22.69143568748193</v>
+        <v>22.92308648336043</v>
       </c>
       <c r="D17">
-        <v>5.737200497926887</v>
+        <v>5.783931962334999</v>
       </c>
       <c r="E17">
-        <v>13.57410816044465</v>
+        <v>13.5477875884255</v>
       </c>
       <c r="F17">
-        <v>15.3425137322636</v>
+        <v>15.16882768935785</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.349514912989722</v>
+        <v>6.34369736147617</v>
       </c>
       <c r="I17">
-        <v>3.80866417001883</v>
+        <v>3.781447432494236</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>8.782024579079209</v>
+        <v>8.792872153401902</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.839809141616159</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.174973669097547</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1267,48 +1363,54 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.122385635391</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>11.00205667307798</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.03947592080829</v>
+        <v>29.02433828120894</v>
       </c>
       <c r="C18">
-        <v>22.60401318961989</v>
+        <v>22.90958283472267</v>
       </c>
       <c r="D18">
-        <v>5.484841528436187</v>
+        <v>5.543957689798323</v>
       </c>
       <c r="E18">
-        <v>18.11928057077202</v>
+        <v>18.09849743151071</v>
       </c>
       <c r="F18">
-        <v>16.18940118667823</v>
+        <v>15.94147055729294</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5.317272673076219</v>
+        <v>5.310684889576608</v>
       </c>
       <c r="I18">
-        <v>3.786694603800046</v>
+        <v>3.761053193372382</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>9.073117852224753</v>
+        <v>9.030543678714801</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.982584301750908</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.406512824955764</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1320,48 +1422,54 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.84080133335445</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.65643263453002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.93650428797732</v>
+        <v>28.92035200402446</v>
       </c>
       <c r="C19">
-        <v>22.79095877747314</v>
+        <v>23.20579977433975</v>
       </c>
       <c r="D19">
-        <v>5.221319613334339</v>
+        <v>5.298412034968222</v>
       </c>
       <c r="E19">
-        <v>24.38555502482325</v>
+        <v>24.36604994974799</v>
       </c>
       <c r="F19">
-        <v>17.32637429341761</v>
+        <v>16.9733902297097</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.343652352658927</v>
+        <v>4.334543745408758</v>
       </c>
       <c r="I19">
-        <v>3.809169142798088</v>
+        <v>3.782178036373518</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033151</v>
       </c>
       <c r="K19">
-        <v>9.409885279067822</v>
+        <v>9.289492002047346</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.15063025649107</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4.672085700119676</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1373,48 +1481,54 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12.75305776806443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.47846550846808</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.51573145936585</v>
+        <v>29.49244231962547</v>
       </c>
       <c r="C20">
-        <v>23.61096206083441</v>
+        <v>24.22880075819113</v>
       </c>
       <c r="D20">
-        <v>4.922554549546257</v>
+        <v>5.032875328800595</v>
       </c>
       <c r="E20">
-        <v>34.52370774629477</v>
+        <v>34.49794915905063</v>
       </c>
       <c r="F20">
-        <v>19.3062156678433</v>
+        <v>18.76382429219551</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.052781545764967</v>
+        <v>4.036638114497916</v>
       </c>
       <c r="I20">
-        <v>3.94514467343609</v>
+        <v>3.905124759100905</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>9.890821949660861</v>
+        <v>9.617223729412968</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.353528331771365</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5.107697502422814</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1426,48 +1540,54 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.2470951876233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.80861406227713</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.28004377255327</v>
+        <v>31.24414073114401</v>
       </c>
       <c r="C21">
-        <v>24.98367691068801</v>
+        <v>25.72143568982069</v>
       </c>
       <c r="D21">
-        <v>5.084848065432758</v>
+        <v>5.221122866435951</v>
       </c>
       <c r="E21">
-        <v>37.33739079230071</v>
+        <v>37.29813463854698</v>
       </c>
       <c r="F21">
-        <v>20.27016820020789</v>
+        <v>19.62535774298611</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.398909824809328</v>
+        <v>4.374144891590007</v>
       </c>
       <c r="I21">
-        <v>4.179027700958154</v>
+        <v>4.115417358402928</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>9.641550266993354</v>
+        <v>9.313943807014478</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.109500566059692</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.139566331687123</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1479,48 +1599,54 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.73975297767859</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14.21512352003506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.38177421087249</v>
+        <v>32.33774658634504</v>
       </c>
       <c r="C22">
-        <v>25.79030971876439</v>
+        <v>26.59647663987306</v>
       </c>
       <c r="D22">
-        <v>5.19742629556553</v>
+        <v>5.349118572479201</v>
       </c>
       <c r="E22">
-        <v>38.66838690452888</v>
+        <v>38.62041497408173</v>
       </c>
       <c r="F22">
-        <v>20.85345609500514</v>
+        <v>20.148550437026</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.602285990844698</v>
+        <v>4.572020669713151</v>
       </c>
       <c r="I22">
-        <v>4.324386852515666</v>
+        <v>4.24484408392478</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>9.483431126839278</v>
+        <v>9.120490841759349</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.950703182105427</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.198273592135497</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1532,48 +1658,54 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.03438980549794</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.45849653150411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.79877535485291</v>
+        <v>31.75907984879906</v>
       </c>
       <c r="C23">
-        <v>25.32535262184319</v>
+        <v>26.09692314448298</v>
       </c>
       <c r="D23">
-        <v>5.131277889010574</v>
+        <v>5.274966727763538</v>
       </c>
       <c r="E23">
-        <v>37.96348346920408</v>
+        <v>37.92014745664248</v>
       </c>
       <c r="F23">
-        <v>20.57759097462845</v>
+        <v>19.90292761183019</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.494410452336441</v>
+        <v>4.467069892564064</v>
       </c>
       <c r="I23">
-        <v>4.24472852952593</v>
+        <v>4.172634865461236</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>9.591453697545466</v>
+        <v>9.243981493886318</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.045925116774587</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.186678746772998</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1585,48 +1717,54 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.90628812047511</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.35609771559324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.48985513202322</v>
+        <v>29.46644198642792</v>
       </c>
       <c r="C24">
-        <v>23.55751643287576</v>
+        <v>24.18843839089172</v>
       </c>
       <c r="D24">
-        <v>4.883354512980766</v>
+        <v>4.995301086920567</v>
       </c>
       <c r="E24">
-        <v>35.18445653200594</v>
+        <v>35.15861163764237</v>
       </c>
       <c r="F24">
-        <v>19.47700618433148</v>
+        <v>18.92131754130489</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.078158881894858</v>
+        <v>4.061892254693007</v>
       </c>
       <c r="I24">
-        <v>3.943052303589064</v>
+        <v>3.901156413829008</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>9.981097696605486</v>
+        <v>9.690816146212821</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.399888560021878</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5.180392863827935</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1638,48 +1776,54 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.39161566824498</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.94110274398232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.78297561817203</v>
+        <v>26.77715662789538</v>
       </c>
       <c r="C25">
-        <v>21.50753279777877</v>
+        <v>21.97159853285217</v>
       </c>
       <c r="D25">
-        <v>4.599851270317474</v>
+        <v>4.675263005525784</v>
       </c>
       <c r="E25">
-        <v>31.95191898907783</v>
+        <v>31.94506316941088</v>
       </c>
       <c r="F25">
-        <v>18.29587300704317</v>
+        <v>17.87074451669018</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.612681208327099</v>
+        <v>3.608404056773178</v>
       </c>
       <c r="I25">
-        <v>3.610300788463035</v>
+        <v>3.602012223926609</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>10.44067940480564</v>
+        <v>10.19851342561567</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.803481583581942</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5.326457010624329</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.8764115243994</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.53142722075333</v>
       </c>
     </row>
   </sheetData>
